--- a/LR1-Table.xlsx
+++ b/LR1-Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="657">
   <si>
     <t>State</t>
   </si>
@@ -2091,23 +2091,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2452,10 +2452,10 @@
   <dimension ref="A1:BR1577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BJ666" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ684" sqref="BQ684"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2683,10 +2683,10 @@
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="14">
+      <c r="AU2" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2694,8 +2694,8 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="AU3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="AU3" s="15"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2726,55 +2726,55 @@
       <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="15" t="s">
         <v>102</v>
       </c>
       <c r="AN6" t="s">
         <v>103</v>
       </c>
-      <c r="AS6" s="14" t="s">
+      <c r="AS6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AV6" s="14">
+      <c r="AV6" s="15">
         <v>4</v>
       </c>
-      <c r="AW6" s="14">
+      <c r="AW6" s="15">
         <v>5</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="AX6" s="15">
         <v>6</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AY6" s="15">
         <v>7</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BA6" s="15">
         <v>12</v>
       </c>
-      <c r="BB6" s="14">
+      <c r="BB6" s="15">
         <v>15</v>
       </c>
     </row>
@@ -2782,484 +2782,484 @@
       <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>636</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>637</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>638</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>639</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AV22" s="14"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3279,40 +3279,40 @@
       <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AL31" s="14" t="s">
+      <c r="AL31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="AN31" s="14" t="s">
+      <c r="AN31" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AS31" s="14" t="s">
+      <c r="AS31" s="15" t="s">
         <v>104</v>
       </c>
       <c r="AU31" s="4"/>
@@ -3329,25 +3329,25 @@
         <v>7</v>
       </c>
       <c r="AZ31" s="4"/>
-      <c r="BA31" s="15">
+      <c r="BA31" s="17">
         <v>12</v>
       </c>
-      <c r="BB31" s="15">
+      <c r="BB31" s="17">
         <v>15</v>
       </c>
-      <c r="BC31" s="15">
+      <c r="BC31" s="17">
         <v>17</v>
       </c>
-      <c r="BD31" s="15">
+      <c r="BD31" s="17">
         <v>18</v>
       </c>
-      <c r="BE31" s="15">
+      <c r="BE31" s="17">
         <v>20</v>
       </c>
       <c r="BF31" s="16">
         <v>28</v>
       </c>
-      <c r="BG31" s="15">
+      <c r="BG31" s="17">
         <v>24</v>
       </c>
       <c r="BH31" s="4"/>
@@ -3366,673 +3366,673 @@
       <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AS32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AS32" s="15"/>
       <c r="AV32" s="16"/>
       <c r="AW32" s="16"/>
       <c r="AX32" s="16"/>
       <c r="AY32" s="16"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
       <c r="BF32" s="16"/>
-      <c r="BG32" s="15"/>
+      <c r="BG32" s="17"/>
     </row>
     <row r="33" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AS33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AS33" s="15"/>
       <c r="AV33" s="16"/>
       <c r="AW33" s="16"/>
       <c r="AX33" s="16"/>
       <c r="AY33" s="16"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
       <c r="BF33" s="16"/>
-      <c r="BG33" s="15"/>
+      <c r="BG33" s="17"/>
     </row>
     <row r="34" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AS34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AS34" s="15"/>
       <c r="AV34" s="16"/>
       <c r="AW34" s="16"/>
       <c r="AX34" s="16"/>
       <c r="AY34" s="16"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
       <c r="BF34" s="16"/>
-      <c r="BG34" s="15"/>
+      <c r="BG34" s="17"/>
     </row>
     <row r="35" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AS35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AS35" s="15"/>
       <c r="AV35" s="16"/>
       <c r="AW35" s="16"/>
       <c r="AX35" s="16"/>
       <c r="AY35" s="16"/>
-      <c r="BA35" s="15"/>
-      <c r="BB35" s="15"/>
-      <c r="BC35" s="15"/>
-      <c r="BD35" s="15"/>
-      <c r="BE35" s="15"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
       <c r="BF35" s="16"/>
-      <c r="BG35" s="15"/>
+      <c r="BG35" s="17"/>
     </row>
     <row r="36" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>636</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AS36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AS36" s="15"/>
       <c r="AV36" s="16"/>
       <c r="AW36" s="16"/>
       <c r="AX36" s="16"/>
       <c r="AY36" s="16"/>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
-      <c r="BD36" s="15"/>
-      <c r="BE36" s="15"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
       <c r="BF36" s="16"/>
-      <c r="BG36" s="15"/>
+      <c r="BG36" s="17"/>
     </row>
     <row r="37" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AS37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AS37" s="15"/>
       <c r="AV37" s="16"/>
       <c r="AW37" s="16"/>
       <c r="AX37" s="16"/>
       <c r="AY37" s="16"/>
-      <c r="BA37" s="15"/>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
-      <c r="BE37" s="15"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
       <c r="BF37" s="16"/>
-      <c r="BG37" s="15"/>
+      <c r="BG37" s="17"/>
     </row>
     <row r="38" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>638</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AS38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AS38" s="15"/>
       <c r="AV38" s="16"/>
       <c r="AW38" s="16"/>
       <c r="AX38" s="16"/>
       <c r="AY38" s="16"/>
-      <c r="BA38" s="15"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
-      <c r="BD38" s="15"/>
-      <c r="BE38" s="15"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
       <c r="BF38" s="16"/>
-      <c r="BG38" s="15"/>
+      <c r="BG38" s="17"/>
     </row>
     <row r="39" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>639</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="AL39" s="14"/>
-      <c r="AN39" s="14"/>
-      <c r="AS39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AS39" s="15"/>
       <c r="AV39" s="16"/>
       <c r="AW39" s="16"/>
       <c r="AX39" s="16"/>
       <c r="AY39" s="16"/>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
-      <c r="BE39" s="15"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
       <c r="BF39" s="16"/>
-      <c r="BG39" s="15"/>
+      <c r="BG39" s="17"/>
     </row>
     <row r="40" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AS40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AS40" s="15"/>
       <c r="AV40" s="16"/>
       <c r="AW40" s="16"/>
       <c r="AX40" s="16"/>
       <c r="AY40" s="16"/>
-      <c r="BA40" s="15"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="15"/>
-      <c r="BD40" s="15"/>
-      <c r="BE40" s="15"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
       <c r="BF40" s="16"/>
-      <c r="BG40" s="15"/>
+      <c r="BG40" s="17"/>
     </row>
     <row r="41" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AS41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AS41" s="15"/>
       <c r="AV41" s="16"/>
       <c r="AW41" s="16"/>
       <c r="AX41" s="16"/>
       <c r="AY41" s="16"/>
-      <c r="BA41" s="15"/>
-      <c r="BB41" s="15"/>
-      <c r="BC41" s="15"/>
-      <c r="BD41" s="15"/>
-      <c r="BE41" s="15"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
       <c r="BF41" s="16"/>
-      <c r="BG41" s="15"/>
+      <c r="BG41" s="17"/>
     </row>
     <row r="42" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AN42" s="14"/>
-      <c r="AS42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AS42" s="15"/>
       <c r="AV42" s="16"/>
       <c r="AW42" s="16"/>
       <c r="AX42" s="16"/>
       <c r="AY42" s="16"/>
-      <c r="BA42" s="15"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="15"/>
-      <c r="BD42" s="15"/>
-      <c r="BE42" s="15"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
       <c r="BF42" s="16"/>
-      <c r="BG42" s="15"/>
+      <c r="BG42" s="17"/>
     </row>
     <row r="43" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AS43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AS43" s="15"/>
       <c r="AV43" s="16"/>
       <c r="AW43" s="16"/>
       <c r="AX43" s="16"/>
       <c r="AY43" s="16"/>
-      <c r="BA43" s="15"/>
-      <c r="BB43" s="15"/>
-      <c r="BC43" s="15"/>
-      <c r="BD43" s="15"/>
-      <c r="BE43" s="15"/>
+      <c r="BA43" s="17"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="17"/>
+      <c r="BD43" s="17"/>
+      <c r="BE43" s="17"/>
       <c r="BF43" s="16"/>
-      <c r="BG43" s="15"/>
+      <c r="BG43" s="17"/>
     </row>
     <row r="44" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AS44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AS44" s="15"/>
       <c r="AV44" s="16"/>
       <c r="AW44" s="16"/>
       <c r="AX44" s="16"/>
       <c r="AY44" s="16"/>
-      <c r="BA44" s="15"/>
-      <c r="BB44" s="15"/>
-      <c r="BC44" s="15"/>
-      <c r="BD44" s="15"/>
-      <c r="BE44" s="15"/>
+      <c r="BA44" s="17"/>
+      <c r="BB44" s="17"/>
+      <c r="BC44" s="17"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="17"/>
       <c r="BF44" s="16"/>
-      <c r="BG44" s="15"/>
+      <c r="BG44" s="17"/>
     </row>
     <row r="45" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="AL45" s="14"/>
-      <c r="AN45" s="14"/>
-      <c r="AS45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AS45" s="15"/>
       <c r="AV45" s="16"/>
       <c r="AW45" s="16"/>
       <c r="AX45" s="16"/>
       <c r="AY45" s="16"/>
-      <c r="BA45" s="15"/>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
-      <c r="BE45" s="15"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="17"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="17"/>
+      <c r="BE45" s="17"/>
       <c r="BF45" s="16"/>
-      <c r="BG45" s="15"/>
+      <c r="BG45" s="17"/>
     </row>
     <row r="46" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AS46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AS46" s="15"/>
       <c r="AV46" s="16"/>
       <c r="AW46" s="16"/>
       <c r="AX46" s="16"/>
       <c r="AY46" s="16"/>
-      <c r="BA46" s="15"/>
-      <c r="BB46" s="15"/>
-      <c r="BC46" s="15"/>
-      <c r="BD46" s="15"/>
-      <c r="BE46" s="15"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
       <c r="BF46" s="16"/>
-      <c r="BG46" s="15"/>
+      <c r="BG46" s="17"/>
     </row>
     <row r="47" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="AL47" s="14"/>
-      <c r="AN47" s="14"/>
-      <c r="AS47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AS47" s="15"/>
       <c r="AV47" s="16"/>
       <c r="AW47" s="16"/>
       <c r="AX47" s="16"/>
       <c r="AY47" s="16"/>
-      <c r="BA47" s="15"/>
-      <c r="BB47" s="15"/>
-      <c r="BC47" s="15"/>
-      <c r="BD47" s="15"/>
-      <c r="BE47" s="15"/>
+      <c r="BA47" s="17"/>
+      <c r="BB47" s="17"/>
+      <c r="BC47" s="17"/>
+      <c r="BD47" s="17"/>
+      <c r="BE47" s="17"/>
       <c r="BF47" s="16"/>
-      <c r="BG47" s="15"/>
+      <c r="BG47" s="17"/>
     </row>
     <row r="48" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AS48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AS48" s="15"/>
       <c r="AV48" s="16"/>
       <c r="AW48" s="16"/>
       <c r="AX48" s="16"/>
       <c r="AY48" s="16"/>
-      <c r="BA48" s="15"/>
-      <c r="BB48" s="15"/>
-      <c r="BC48" s="15"/>
-      <c r="BD48" s="15"/>
-      <c r="BE48" s="15"/>
+      <c r="BA48" s="17"/>
+      <c r="BB48" s="17"/>
+      <c r="BC48" s="17"/>
+      <c r="BD48" s="17"/>
+      <c r="BE48" s="17"/>
       <c r="BF48" s="16"/>
-      <c r="BG48" s="15"/>
+      <c r="BG48" s="17"/>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AS49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AS49" s="15"/>
       <c r="AV49" s="16"/>
       <c r="AW49" s="16"/>
       <c r="AX49" s="16"/>
       <c r="AY49" s="16"/>
-      <c r="BA49" s="15"/>
-      <c r="BB49" s="15"/>
-      <c r="BC49" s="15"/>
-      <c r="BD49" s="15"/>
-      <c r="BE49" s="15"/>
+      <c r="BA49" s="17"/>
+      <c r="BB49" s="17"/>
+      <c r="BC49" s="17"/>
+      <c r="BD49" s="17"/>
+      <c r="BE49" s="17"/>
       <c r="BF49" s="16"/>
-      <c r="BG49" s="15"/>
+      <c r="BG49" s="17"/>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AN50" s="14"/>
-      <c r="AS50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AS50" s="15"/>
       <c r="AV50" s="16"/>
       <c r="AW50" s="16"/>
       <c r="AX50" s="16"/>
       <c r="AY50" s="16"/>
-      <c r="BA50" s="15"/>
-      <c r="BB50" s="15"/>
-      <c r="BC50" s="15"/>
-      <c r="BD50" s="15"/>
-      <c r="BE50" s="15"/>
+      <c r="BA50" s="17"/>
+      <c r="BB50" s="17"/>
+      <c r="BC50" s="17"/>
+      <c r="BD50" s="17"/>
+      <c r="BE50" s="17"/>
       <c r="BF50" s="16"/>
-      <c r="BG50" s="15"/>
+      <c r="BG50" s="17"/>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AS51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="AL51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AS51" s="15"/>
       <c r="AV51" s="16"/>
       <c r="AW51" s="16"/>
       <c r="AX51" s="16"/>
       <c r="AY51" s="16"/>
-      <c r="BA51" s="15"/>
-      <c r="BB51" s="15"/>
-      <c r="BC51" s="15"/>
-      <c r="BD51" s="15"/>
-      <c r="BE51" s="15"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17"/>
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
       <c r="BF51" s="16"/>
-      <c r="BG51" s="15"/>
+      <c r="BG51" s="17"/>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="AL52" s="14"/>
-      <c r="AN52" s="14"/>
-      <c r="AS52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AS52" s="15"/>
       <c r="AV52" s="16"/>
       <c r="AW52" s="16"/>
       <c r="AX52" s="16"/>
       <c r="AY52" s="16"/>
-      <c r="BA52" s="15"/>
-      <c r="BB52" s="15"/>
-      <c r="BC52" s="15"/>
-      <c r="BD52" s="15"/>
-      <c r="BE52" s="15"/>
+      <c r="BA52" s="17"/>
+      <c r="BB52" s="17"/>
+      <c r="BC52" s="17"/>
+      <c r="BD52" s="17"/>
+      <c r="BE52" s="17"/>
       <c r="BF52" s="16"/>
-      <c r="BG52" s="15"/>
+      <c r="BG52" s="17"/>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AN53" s="14"/>
-      <c r="AS53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AS53" s="15"/>
       <c r="AV53" s="16"/>
       <c r="AW53" s="16"/>
       <c r="AX53" s="16"/>
       <c r="AY53" s="16"/>
-      <c r="BA53" s="15"/>
-      <c r="BB53" s="15"/>
-      <c r="BC53" s="15"/>
-      <c r="BD53" s="15"/>
-      <c r="BE53" s="15"/>
+      <c r="BA53" s="17"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="17"/>
+      <c r="BD53" s="17"/>
+      <c r="BE53" s="17"/>
       <c r="BF53" s="16"/>
-      <c r="BG53" s="15"/>
+      <c r="BG53" s="17"/>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AS54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AS54" s="15"/>
       <c r="AV54" s="16"/>
       <c r="AW54" s="16"/>
       <c r="AX54" s="16"/>
       <c r="AY54" s="16"/>
-      <c r="BA54" s="15"/>
-      <c r="BB54" s="15"/>
-      <c r="BC54" s="15"/>
-      <c r="BD54" s="15"/>
-      <c r="BE54" s="15"/>
+      <c r="BA54" s="17"/>
+      <c r="BB54" s="17"/>
+      <c r="BC54" s="17"/>
+      <c r="BD54" s="17"/>
+      <c r="BE54" s="17"/>
       <c r="BF54" s="16"/>
-      <c r="BG54" s="15"/>
+      <c r="BG54" s="17"/>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AN55" s="14"/>
-      <c r="AS55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AN55" s="15"/>
+      <c r="AS55" s="15"/>
       <c r="AV55" s="16"/>
       <c r="AW55" s="16"/>
       <c r="AX55" s="16"/>
       <c r="AY55" s="16"/>
-      <c r="BA55" s="15"/>
-      <c r="BB55" s="15"/>
-      <c r="BC55" s="15"/>
-      <c r="BD55" s="15"/>
-      <c r="BE55" s="15"/>
+      <c r="BA55" s="17"/>
+      <c r="BB55" s="17"/>
+      <c r="BC55" s="17"/>
+      <c r="BD55" s="17"/>
+      <c r="BE55" s="17"/>
       <c r="BF55" s="16"/>
-      <c r="BG55" s="15"/>
+      <c r="BG55" s="17"/>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4087,13 +4087,13 @@
       </c>
       <c r="P57" s="9"/>
       <c r="AC57" s="12"/>
-      <c r="AD57" s="17" t="s">
+      <c r="AD57" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AN57" s="14" t="s">
+      <c r="AN57" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AZ57" s="14">
+      <c r="AZ57" s="15">
         <v>28</v>
       </c>
     </row>
@@ -4102,18 +4102,18 @@
         <v>113</v>
       </c>
       <c r="AC58" s="12"/>
-      <c r="AD58" s="17"/>
-      <c r="AN58" s="14"/>
-      <c r="AZ58" s="14"/>
+      <c r="AD58" s="19"/>
+      <c r="AN58" s="15"/>
+      <c r="AZ58" s="15"/>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>114</v>
       </c>
       <c r="AC59" s="12"/>
-      <c r="AD59" s="17"/>
-      <c r="AN59" s="14"/>
-      <c r="AZ59" s="14"/>
+      <c r="AD59" s="19"/>
+      <c r="AN59" s="15"/>
+      <c r="AZ59" s="15"/>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4172,6 +4172,9 @@
       <c r="N64" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="P64" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="AL64" t="s">
         <v>120</v>
       </c>
@@ -4225,7 +4228,7 @@
       <c r="B68" t="s">
         <v>127</v>
       </c>
-      <c r="AI68" s="14" t="s">
+      <c r="AI68" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4233,7 +4236,7 @@
       <c r="B69" t="s">
         <v>128</v>
       </c>
-      <c r="AI69" s="14"/>
+      <c r="AI69" s="15"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -4405,10 +4408,10 @@
       <c r="B82" t="s">
         <v>154</v>
       </c>
-      <c r="AC82" s="14" t="s">
+      <c r="AC82" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AD82" s="14" t="s">
+      <c r="AD82" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4416,8 +4419,8 @@
       <c r="B83" t="s">
         <v>155</v>
       </c>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
     </row>
     <row r="84" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -4426,10 +4429,10 @@
       <c r="B84" t="s">
         <v>158</v>
       </c>
-      <c r="I84" s="14" t="s">
+      <c r="I84" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J84" s="15" t="s">
         <v>192</v>
       </c>
       <c r="AB84" t="s">
@@ -4502,225 +4505,225 @@
       <c r="B85" t="s">
         <v>159</v>
       </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>160</v>
       </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>161</v>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>162</v>
       </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>163</v>
       </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>164</v>
       </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>165</v>
       </c>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>166</v>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>167</v>
       </c>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>168</v>
       </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>169</v>
       </c>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>170</v>
       </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>171</v>
       </c>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>172</v>
       </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>173</v>
       </c>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>174</v>
       </c>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>175</v>
       </c>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>176</v>
       </c>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>177</v>
       </c>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>178</v>
       </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>179</v>
       </c>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>180</v>
       </c>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>181</v>
       </c>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>182</v>
       </c>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>183</v>
       </c>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>184</v>
       </c>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>185</v>
       </c>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>186</v>
       </c>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>187</v>
       </c>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>188</v>
       </c>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>189</v>
       </c>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>190</v>
       </c>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -4743,28 +4746,28 @@
       <c r="B118" t="s">
         <v>201</v>
       </c>
-      <c r="I118" s="14" t="s">
+      <c r="I118" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J118" s="14" t="s">
+      <c r="J118" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AB118" s="14" t="s">
+      <c r="AB118" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AI118" s="14" t="s">
+      <c r="AI118" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AM118" s="14" t="s">
+      <c r="AM118" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AN118" s="14" t="s">
+      <c r="AN118" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="AO118" s="14" t="s">
+      <c r="AO118" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AP118" s="14" t="s">
+      <c r="AP118" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4772,404 +4775,404 @@
       <c r="B119" t="s">
         <v>202</v>
       </c>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AI119" s="14"/>
-      <c r="AM119" s="14"/>
-      <c r="AN119" s="14"/>
-      <c r="AO119" s="14"/>
-      <c r="AP119" s="14"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AI119" s="15"/>
+      <c r="AM119" s="15"/>
+      <c r="AN119" s="15"/>
+      <c r="AO119" s="15"/>
+      <c r="AP119" s="15"/>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>203</v>
       </c>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="AB120" s="14"/>
-      <c r="AI120" s="14"/>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
-      <c r="AO120" s="14"/>
-      <c r="AP120" s="14"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="AB120" s="15"/>
+      <c r="AI120" s="15"/>
+      <c r="AM120" s="15"/>
+      <c r="AN120" s="15"/>
+      <c r="AO120" s="15"/>
+      <c r="AP120" s="15"/>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>204</v>
       </c>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="AB121" s="14"/>
-      <c r="AI121" s="14"/>
-      <c r="AM121" s="14"/>
-      <c r="AN121" s="14"/>
-      <c r="AO121" s="14"/>
-      <c r="AP121" s="14"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="AB121" s="15"/>
+      <c r="AI121" s="15"/>
+      <c r="AM121" s="15"/>
+      <c r="AN121" s="15"/>
+      <c r="AO121" s="15"/>
+      <c r="AP121" s="15"/>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>205</v>
       </c>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="AB122" s="14"/>
-      <c r="AI122" s="14"/>
-      <c r="AM122" s="14"/>
-      <c r="AN122" s="14"/>
-      <c r="AO122" s="14"/>
-      <c r="AP122" s="14"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="AB122" s="15"/>
+      <c r="AI122" s="15"/>
+      <c r="AM122" s="15"/>
+      <c r="AN122" s="15"/>
+      <c r="AO122" s="15"/>
+      <c r="AP122" s="15"/>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>206</v>
       </c>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="AB123" s="14"/>
-      <c r="AI123" s="14"/>
-      <c r="AM123" s="14"/>
-      <c r="AN123" s="14"/>
-      <c r="AO123" s="14"/>
-      <c r="AP123" s="14"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="AB123" s="15"/>
+      <c r="AI123" s="15"/>
+      <c r="AM123" s="15"/>
+      <c r="AN123" s="15"/>
+      <c r="AO123" s="15"/>
+      <c r="AP123" s="15"/>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>207</v>
       </c>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="AB124" s="14"/>
-      <c r="AI124" s="14"/>
-      <c r="AM124" s="14"/>
-      <c r="AN124" s="14"/>
-      <c r="AO124" s="14"/>
-      <c r="AP124" s="14"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="AB124" s="15"/>
+      <c r="AI124" s="15"/>
+      <c r="AM124" s="15"/>
+      <c r="AN124" s="15"/>
+      <c r="AO124" s="15"/>
+      <c r="AP124" s="15"/>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>208</v>
       </c>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="AB125" s="14"/>
-      <c r="AI125" s="14"/>
-      <c r="AM125" s="14"/>
-      <c r="AN125" s="14"/>
-      <c r="AO125" s="14"/>
-      <c r="AP125" s="14"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="AB125" s="15"/>
+      <c r="AI125" s="15"/>
+      <c r="AM125" s="15"/>
+      <c r="AN125" s="15"/>
+      <c r="AO125" s="15"/>
+      <c r="AP125" s="15"/>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>209</v>
       </c>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="AB126" s="14"/>
-      <c r="AI126" s="14"/>
-      <c r="AM126" s="14"/>
-      <c r="AN126" s="14"/>
-      <c r="AO126" s="14"/>
-      <c r="AP126" s="14"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="AB126" s="15"/>
+      <c r="AI126" s="15"/>
+      <c r="AM126" s="15"/>
+      <c r="AN126" s="15"/>
+      <c r="AO126" s="15"/>
+      <c r="AP126" s="15"/>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="AB127" s="14"/>
-      <c r="AI127" s="14"/>
-      <c r="AM127" s="14"/>
-      <c r="AN127" s="14"/>
-      <c r="AO127" s="14"/>
-      <c r="AP127" s="14"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="AB127" s="15"/>
+      <c r="AI127" s="15"/>
+      <c r="AM127" s="15"/>
+      <c r="AN127" s="15"/>
+      <c r="AO127" s="15"/>
+      <c r="AP127" s="15"/>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>211</v>
       </c>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="AB128" s="14"/>
-      <c r="AI128" s="14"/>
-      <c r="AM128" s="14"/>
-      <c r="AN128" s="14"/>
-      <c r="AO128" s="14"/>
-      <c r="AP128" s="14"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="AB128" s="15"/>
+      <c r="AI128" s="15"/>
+      <c r="AM128" s="15"/>
+      <c r="AN128" s="15"/>
+      <c r="AO128" s="15"/>
+      <c r="AP128" s="15"/>
     </row>
     <row r="129" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>212</v>
       </c>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="AB129" s="14"/>
-      <c r="AI129" s="14"/>
-      <c r="AM129" s="14"/>
-      <c r="AN129" s="14"/>
-      <c r="AO129" s="14"/>
-      <c r="AP129" s="14"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="AB129" s="15"/>
+      <c r="AI129" s="15"/>
+      <c r="AM129" s="15"/>
+      <c r="AN129" s="15"/>
+      <c r="AO129" s="15"/>
+      <c r="AP129" s="15"/>
     </row>
     <row r="130" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>213</v>
       </c>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="AB130" s="14"/>
-      <c r="AI130" s="14"/>
-      <c r="AM130" s="14"/>
-      <c r="AN130" s="14"/>
-      <c r="AO130" s="14"/>
-      <c r="AP130" s="14"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="AB130" s="15"/>
+      <c r="AI130" s="15"/>
+      <c r="AM130" s="15"/>
+      <c r="AN130" s="15"/>
+      <c r="AO130" s="15"/>
+      <c r="AP130" s="15"/>
     </row>
     <row r="131" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>214</v>
       </c>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="AB131" s="14"/>
-      <c r="AI131" s="14"/>
-      <c r="AM131" s="14"/>
-      <c r="AN131" s="14"/>
-      <c r="AO131" s="14"/>
-      <c r="AP131" s="14"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="AB131" s="15"/>
+      <c r="AI131" s="15"/>
+      <c r="AM131" s="15"/>
+      <c r="AN131" s="15"/>
+      <c r="AO131" s="15"/>
+      <c r="AP131" s="15"/>
     </row>
     <row r="132" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>215</v>
       </c>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="AB132" s="14"/>
-      <c r="AI132" s="14"/>
-      <c r="AM132" s="14"/>
-      <c r="AN132" s="14"/>
-      <c r="AO132" s="14"/>
-      <c r="AP132" s="14"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="AB132" s="15"/>
+      <c r="AI132" s="15"/>
+      <c r="AM132" s="15"/>
+      <c r="AN132" s="15"/>
+      <c r="AO132" s="15"/>
+      <c r="AP132" s="15"/>
     </row>
     <row r="133" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>216</v>
       </c>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="AB133" s="14"/>
-      <c r="AI133" s="14"/>
-      <c r="AM133" s="14"/>
-      <c r="AN133" s="14"/>
-      <c r="AO133" s="14"/>
-      <c r="AP133" s="14"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="AB133" s="15"/>
+      <c r="AI133" s="15"/>
+      <c r="AM133" s="15"/>
+      <c r="AN133" s="15"/>
+      <c r="AO133" s="15"/>
+      <c r="AP133" s="15"/>
     </row>
     <row r="134" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>217</v>
       </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="AB134" s="14"/>
-      <c r="AI134" s="14"/>
-      <c r="AM134" s="14"/>
-      <c r="AN134" s="14"/>
-      <c r="AO134" s="14"/>
-      <c r="AP134" s="14"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="AB134" s="15"/>
+      <c r="AI134" s="15"/>
+      <c r="AM134" s="15"/>
+      <c r="AN134" s="15"/>
+      <c r="AO134" s="15"/>
+      <c r="AP134" s="15"/>
     </row>
     <row r="135" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>218</v>
       </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="AB135" s="14"/>
-      <c r="AI135" s="14"/>
-      <c r="AM135" s="14"/>
-      <c r="AN135" s="14"/>
-      <c r="AO135" s="14"/>
-      <c r="AP135" s="14"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="AB135" s="15"/>
+      <c r="AI135" s="15"/>
+      <c r="AM135" s="15"/>
+      <c r="AN135" s="15"/>
+      <c r="AO135" s="15"/>
+      <c r="AP135" s="15"/>
     </row>
     <row r="136" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>219</v>
       </c>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="AB136" s="14"/>
-      <c r="AI136" s="14"/>
-      <c r="AM136" s="14"/>
-      <c r="AN136" s="14"/>
-      <c r="AO136" s="14"/>
-      <c r="AP136" s="14"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="AB136" s="15"/>
+      <c r="AI136" s="15"/>
+      <c r="AM136" s="15"/>
+      <c r="AN136" s="15"/>
+      <c r="AO136" s="15"/>
+      <c r="AP136" s="15"/>
     </row>
     <row r="137" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>220</v>
       </c>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="AB137" s="14"/>
-      <c r="AI137" s="14"/>
-      <c r="AM137" s="14"/>
-      <c r="AN137" s="14"/>
-      <c r="AO137" s="14"/>
-      <c r="AP137" s="14"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="AB137" s="15"/>
+      <c r="AI137" s="15"/>
+      <c r="AM137" s="15"/>
+      <c r="AN137" s="15"/>
+      <c r="AO137" s="15"/>
+      <c r="AP137" s="15"/>
     </row>
     <row r="138" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>221</v>
       </c>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="AB138" s="14"/>
-      <c r="AI138" s="14"/>
-      <c r="AM138" s="14"/>
-      <c r="AN138" s="14"/>
-      <c r="AO138" s="14"/>
-      <c r="AP138" s="14"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="AB138" s="15"/>
+      <c r="AI138" s="15"/>
+      <c r="AM138" s="15"/>
+      <c r="AN138" s="15"/>
+      <c r="AO138" s="15"/>
+      <c r="AP138" s="15"/>
     </row>
     <row r="139" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>222</v>
       </c>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="AB139" s="14"/>
-      <c r="AI139" s="14"/>
-      <c r="AM139" s="14"/>
-      <c r="AN139" s="14"/>
-      <c r="AO139" s="14"/>
-      <c r="AP139" s="14"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="AB139" s="15"/>
+      <c r="AI139" s="15"/>
+      <c r="AM139" s="15"/>
+      <c r="AN139" s="15"/>
+      <c r="AO139" s="15"/>
+      <c r="AP139" s="15"/>
     </row>
     <row r="140" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>223</v>
       </c>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="AB140" s="14"/>
-      <c r="AI140" s="14"/>
-      <c r="AM140" s="14"/>
-      <c r="AN140" s="14"/>
-      <c r="AO140" s="14"/>
-      <c r="AP140" s="14"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="AB140" s="15"/>
+      <c r="AI140" s="15"/>
+      <c r="AM140" s="15"/>
+      <c r="AN140" s="15"/>
+      <c r="AO140" s="15"/>
+      <c r="AP140" s="15"/>
     </row>
     <row r="141" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>224</v>
       </c>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="AB141" s="14"/>
-      <c r="AI141" s="14"/>
-      <c r="AM141" s="14"/>
-      <c r="AN141" s="14"/>
-      <c r="AO141" s="14"/>
-      <c r="AP141" s="14"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="AB141" s="15"/>
+      <c r="AI141" s="15"/>
+      <c r="AM141" s="15"/>
+      <c r="AN141" s="15"/>
+      <c r="AO141" s="15"/>
+      <c r="AP141" s="15"/>
     </row>
     <row r="142" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>225</v>
       </c>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="AB142" s="14"/>
-      <c r="AI142" s="14"/>
-      <c r="AM142" s="14"/>
-      <c r="AN142" s="14"/>
-      <c r="AO142" s="14"/>
-      <c r="AP142" s="14"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="AB142" s="15"/>
+      <c r="AI142" s="15"/>
+      <c r="AM142" s="15"/>
+      <c r="AN142" s="15"/>
+      <c r="AO142" s="15"/>
+      <c r="AP142" s="15"/>
     </row>
     <row r="143" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>226</v>
       </c>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="AB143" s="14"/>
-      <c r="AI143" s="14"/>
-      <c r="AM143" s="14"/>
-      <c r="AN143" s="14"/>
-      <c r="AO143" s="14"/>
-      <c r="AP143" s="14"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="AB143" s="15"/>
+      <c r="AI143" s="15"/>
+      <c r="AM143" s="15"/>
+      <c r="AN143" s="15"/>
+      <c r="AO143" s="15"/>
+      <c r="AP143" s="15"/>
     </row>
     <row r="144" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>227</v>
       </c>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="AB144" s="14"/>
-      <c r="AI144" s="14"/>
-      <c r="AM144" s="14"/>
-      <c r="AN144" s="14"/>
-      <c r="AO144" s="14"/>
-      <c r="AP144" s="14"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="AB144" s="15"/>
+      <c r="AI144" s="15"/>
+      <c r="AM144" s="15"/>
+      <c r="AN144" s="15"/>
+      <c r="AO144" s="15"/>
+      <c r="AP144" s="15"/>
     </row>
     <row r="145" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>228</v>
       </c>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="AB145" s="14"/>
-      <c r="AI145" s="14"/>
-      <c r="AM145" s="14"/>
-      <c r="AN145" s="14"/>
-      <c r="AO145" s="14"/>
-      <c r="AP145" s="14"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="AB145" s="15"/>
+      <c r="AI145" s="15"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="15"/>
+      <c r="AO145" s="15"/>
+      <c r="AP145" s="15"/>
     </row>
     <row r="146" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>229</v>
       </c>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="AB146" s="14"/>
-      <c r="AI146" s="14"/>
-      <c r="AM146" s="14"/>
-      <c r="AN146" s="14"/>
-      <c r="AO146" s="14"/>
-      <c r="AP146" s="14"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="AB146" s="15"/>
+      <c r="AI146" s="15"/>
+      <c r="AM146" s="15"/>
+      <c r="AN146" s="15"/>
+      <c r="AO146" s="15"/>
+      <c r="AP146" s="15"/>
     </row>
     <row r="147" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>230</v>
       </c>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="AB147" s="14"/>
-      <c r="AI147" s="14"/>
-      <c r="AM147" s="14"/>
-      <c r="AN147" s="14"/>
-      <c r="AO147" s="14"/>
-      <c r="AP147" s="14"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="AB147" s="15"/>
+      <c r="AI147" s="15"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="15"/>
+      <c r="AO147" s="15"/>
+      <c r="AP147" s="15"/>
     </row>
     <row r="148" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>231</v>
       </c>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="AB148" s="14"/>
-      <c r="AI148" s="14"/>
-      <c r="AM148" s="14"/>
-      <c r="AN148" s="14"/>
-      <c r="AO148" s="14"/>
-      <c r="AP148" s="14"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="AB148" s="15"/>
+      <c r="AI148" s="15"/>
+      <c r="AM148" s="15"/>
+      <c r="AN148" s="15"/>
+      <c r="AO148" s="15"/>
+      <c r="AP148" s="15"/>
     </row>
     <row r="149" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>232</v>
       </c>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="AB149" s="14"/>
-      <c r="AI149" s="14"/>
-      <c r="AM149" s="14"/>
-      <c r="AN149" s="14"/>
-      <c r="AO149" s="14"/>
-      <c r="AP149" s="14"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="AB149" s="15"/>
+      <c r="AI149" s="15"/>
+      <c r="AM149" s="15"/>
+      <c r="AN149" s="15"/>
+      <c r="AO149" s="15"/>
+      <c r="AP149" s="15"/>
     </row>
     <row r="150" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -5178,13 +5181,13 @@
       <c r="B150" t="s">
         <v>241</v>
       </c>
-      <c r="AN150" s="14" t="s">
+      <c r="AN150" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AS150" s="14" t="s">
+      <c r="AS150" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="BA150" s="14">
+      <c r="BA150" s="15">
         <v>78</v>
       </c>
     </row>
@@ -5192,17 +5195,17 @@
       <c r="B151" t="s">
         <v>242</v>
       </c>
-      <c r="AN151" s="14"/>
-      <c r="AS151" s="14"/>
-      <c r="BA151" s="14"/>
+      <c r="AN151" s="15"/>
+      <c r="AS151" s="15"/>
+      <c r="BA151" s="15"/>
     </row>
     <row r="152" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>243</v>
       </c>
-      <c r="AN152" s="14"/>
-      <c r="AS152" s="14"/>
-      <c r="BA152" s="14"/>
+      <c r="AN152" s="15"/>
+      <c r="AS152" s="15"/>
+      <c r="BA152" s="15"/>
     </row>
     <row r="153" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -5211,28 +5214,28 @@
       <c r="B153" t="s">
         <v>246</v>
       </c>
-      <c r="I153" s="14" t="s">
+      <c r="I153" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J153" s="14" t="s">
+      <c r="J153" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AB153" s="14" t="s">
+      <c r="AB153" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AI153" s="14" t="s">
+      <c r="AI153" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AM153" s="14" t="s">
+      <c r="AM153" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AN153" s="14" t="s">
+      <c r="AN153" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="AO153" s="14" t="s">
+      <c r="AO153" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AP153" s="14" t="s">
+      <c r="AP153" s="15" t="s">
         <v>240</v>
       </c>
       <c r="AU153" s="4"/>
@@ -5284,391 +5287,391 @@
       <c r="B154" t="s">
         <v>203</v>
       </c>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-      <c r="AB154" s="14"/>
-      <c r="AI154" s="14"/>
-      <c r="AM154" s="14"/>
-      <c r="AN154" s="14"/>
-      <c r="AO154" s="14"/>
-      <c r="AP154" s="14"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="AB154" s="15"/>
+      <c r="AI154" s="15"/>
+      <c r="AM154" s="15"/>
+      <c r="AN154" s="15"/>
+      <c r="AO154" s="15"/>
+      <c r="AP154" s="15"/>
     </row>
     <row r="155" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>204</v>
       </c>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-      <c r="AB155" s="14"/>
-      <c r="AI155" s="14"/>
-      <c r="AM155" s="14"/>
-      <c r="AN155" s="14"/>
-      <c r="AO155" s="14"/>
-      <c r="AP155" s="14"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="AB155" s="15"/>
+      <c r="AI155" s="15"/>
+      <c r="AM155" s="15"/>
+      <c r="AN155" s="15"/>
+      <c r="AO155" s="15"/>
+      <c r="AP155" s="15"/>
     </row>
     <row r="156" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>205</v>
       </c>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="AB156" s="14"/>
-      <c r="AI156" s="14"/>
-      <c r="AM156" s="14"/>
-      <c r="AN156" s="14"/>
-      <c r="AO156" s="14"/>
-      <c r="AP156" s="14"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="AB156" s="15"/>
+      <c r="AI156" s="15"/>
+      <c r="AM156" s="15"/>
+      <c r="AN156" s="15"/>
+      <c r="AO156" s="15"/>
+      <c r="AP156" s="15"/>
     </row>
     <row r="157" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>206</v>
       </c>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
-      <c r="AB157" s="14"/>
-      <c r="AI157" s="14"/>
-      <c r="AM157" s="14"/>
-      <c r="AN157" s="14"/>
-      <c r="AO157" s="14"/>
-      <c r="AP157" s="14"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="AB157" s="15"/>
+      <c r="AI157" s="15"/>
+      <c r="AM157" s="15"/>
+      <c r="AN157" s="15"/>
+      <c r="AO157" s="15"/>
+      <c r="AP157" s="15"/>
     </row>
     <row r="158" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>207</v>
       </c>
-      <c r="I158" s="14"/>
-      <c r="J158" s="14"/>
-      <c r="AB158" s="14"/>
-      <c r="AI158" s="14"/>
-      <c r="AM158" s="14"/>
-      <c r="AN158" s="14"/>
-      <c r="AO158" s="14"/>
-      <c r="AP158" s="14"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="AB158" s="15"/>
+      <c r="AI158" s="15"/>
+      <c r="AM158" s="15"/>
+      <c r="AN158" s="15"/>
+      <c r="AO158" s="15"/>
+      <c r="AP158" s="15"/>
     </row>
     <row r="159" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>208</v>
       </c>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="AB159" s="14"/>
-      <c r="AI159" s="14"/>
-      <c r="AM159" s="14"/>
-      <c r="AN159" s="14"/>
-      <c r="AO159" s="14"/>
-      <c r="AP159" s="14"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AI159" s="15"/>
+      <c r="AM159" s="15"/>
+      <c r="AN159" s="15"/>
+      <c r="AO159" s="15"/>
+      <c r="AP159" s="15"/>
     </row>
     <row r="160" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>209</v>
       </c>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
-      <c r="AB160" s="14"/>
-      <c r="AI160" s="14"/>
-      <c r="AM160" s="14"/>
-      <c r="AN160" s="14"/>
-      <c r="AO160" s="14"/>
-      <c r="AP160" s="14"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="AB160" s="15"/>
+      <c r="AI160" s="15"/>
+      <c r="AM160" s="15"/>
+      <c r="AN160" s="15"/>
+      <c r="AO160" s="15"/>
+      <c r="AP160" s="15"/>
     </row>
     <row r="161" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>210</v>
       </c>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="AB161" s="14"/>
-      <c r="AI161" s="14"/>
-      <c r="AM161" s="14"/>
-      <c r="AN161" s="14"/>
-      <c r="AO161" s="14"/>
-      <c r="AP161" s="14"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="AB161" s="15"/>
+      <c r="AI161" s="15"/>
+      <c r="AM161" s="15"/>
+      <c r="AN161" s="15"/>
+      <c r="AO161" s="15"/>
+      <c r="AP161" s="15"/>
     </row>
     <row r="162" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>211</v>
       </c>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="AB162" s="14"/>
-      <c r="AI162" s="14"/>
-      <c r="AM162" s="14"/>
-      <c r="AN162" s="14"/>
-      <c r="AO162" s="14"/>
-      <c r="AP162" s="14"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AI162" s="15"/>
+      <c r="AM162" s="15"/>
+      <c r="AN162" s="15"/>
+      <c r="AO162" s="15"/>
+      <c r="AP162" s="15"/>
     </row>
     <row r="163" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>212</v>
       </c>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
-      <c r="AB163" s="14"/>
-      <c r="AI163" s="14"/>
-      <c r="AM163" s="14"/>
-      <c r="AN163" s="14"/>
-      <c r="AO163" s="14"/>
-      <c r="AP163" s="14"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="AB163" s="15"/>
+      <c r="AI163" s="15"/>
+      <c r="AM163" s="15"/>
+      <c r="AN163" s="15"/>
+      <c r="AO163" s="15"/>
+      <c r="AP163" s="15"/>
     </row>
     <row r="164" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>213</v>
       </c>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
-      <c r="AB164" s="14"/>
-      <c r="AI164" s="14"/>
-      <c r="AM164" s="14"/>
-      <c r="AN164" s="14"/>
-      <c r="AO164" s="14"/>
-      <c r="AP164" s="14"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="AB164" s="15"/>
+      <c r="AI164" s="15"/>
+      <c r="AM164" s="15"/>
+      <c r="AN164" s="15"/>
+      <c r="AO164" s="15"/>
+      <c r="AP164" s="15"/>
     </row>
     <row r="165" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>214</v>
       </c>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
-      <c r="AB165" s="14"/>
-      <c r="AI165" s="14"/>
-      <c r="AM165" s="14"/>
-      <c r="AN165" s="14"/>
-      <c r="AO165" s="14"/>
-      <c r="AP165" s="14"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="AB165" s="15"/>
+      <c r="AI165" s="15"/>
+      <c r="AM165" s="15"/>
+      <c r="AN165" s="15"/>
+      <c r="AO165" s="15"/>
+      <c r="AP165" s="15"/>
     </row>
     <row r="166" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>215</v>
       </c>
-      <c r="I166" s="14"/>
-      <c r="J166" s="14"/>
-      <c r="AB166" s="14"/>
-      <c r="AI166" s="14"/>
-      <c r="AM166" s="14"/>
-      <c r="AN166" s="14"/>
-      <c r="AO166" s="14"/>
-      <c r="AP166" s="14"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="AB166" s="15"/>
+      <c r="AI166" s="15"/>
+      <c r="AM166" s="15"/>
+      <c r="AN166" s="15"/>
+      <c r="AO166" s="15"/>
+      <c r="AP166" s="15"/>
     </row>
     <row r="167" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>216</v>
       </c>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
-      <c r="AB167" s="14"/>
-      <c r="AI167" s="14"/>
-      <c r="AM167" s="14"/>
-      <c r="AN167" s="14"/>
-      <c r="AO167" s="14"/>
-      <c r="AP167" s="14"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="AB167" s="15"/>
+      <c r="AI167" s="15"/>
+      <c r="AM167" s="15"/>
+      <c r="AN167" s="15"/>
+      <c r="AO167" s="15"/>
+      <c r="AP167" s="15"/>
     </row>
     <row r="168" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>217</v>
       </c>
-      <c r="I168" s="14"/>
-      <c r="J168" s="14"/>
-      <c r="AB168" s="14"/>
-      <c r="AI168" s="14"/>
-      <c r="AM168" s="14"/>
-      <c r="AN168" s="14"/>
-      <c r="AO168" s="14"/>
-      <c r="AP168" s="14"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="AB168" s="15"/>
+      <c r="AI168" s="15"/>
+      <c r="AM168" s="15"/>
+      <c r="AN168" s="15"/>
+      <c r="AO168" s="15"/>
+      <c r="AP168" s="15"/>
     </row>
     <row r="169" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>218</v>
       </c>
-      <c r="I169" s="14"/>
-      <c r="J169" s="14"/>
-      <c r="AB169" s="14"/>
-      <c r="AI169" s="14"/>
-      <c r="AM169" s="14"/>
-      <c r="AN169" s="14"/>
-      <c r="AO169" s="14"/>
-      <c r="AP169" s="14"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="AB169" s="15"/>
+      <c r="AI169" s="15"/>
+      <c r="AM169" s="15"/>
+      <c r="AN169" s="15"/>
+      <c r="AO169" s="15"/>
+      <c r="AP169" s="15"/>
     </row>
     <row r="170" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>219</v>
       </c>
-      <c r="I170" s="14"/>
-      <c r="J170" s="14"/>
-      <c r="AB170" s="14"/>
-      <c r="AI170" s="14"/>
-      <c r="AM170" s="14"/>
-      <c r="AN170" s="14"/>
-      <c r="AO170" s="14"/>
-      <c r="AP170" s="14"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="AI170" s="15"/>
+      <c r="AM170" s="15"/>
+      <c r="AN170" s="15"/>
+      <c r="AO170" s="15"/>
+      <c r="AP170" s="15"/>
     </row>
     <row r="171" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>220</v>
       </c>
-      <c r="I171" s="14"/>
-      <c r="J171" s="14"/>
-      <c r="AB171" s="14"/>
-      <c r="AI171" s="14"/>
-      <c r="AM171" s="14"/>
-      <c r="AN171" s="14"/>
-      <c r="AO171" s="14"/>
-      <c r="AP171" s="14"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="AB171" s="15"/>
+      <c r="AI171" s="15"/>
+      <c r="AM171" s="15"/>
+      <c r="AN171" s="15"/>
+      <c r="AO171" s="15"/>
+      <c r="AP171" s="15"/>
     </row>
     <row r="172" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>221</v>
       </c>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="AB172" s="14"/>
-      <c r="AI172" s="14"/>
-      <c r="AM172" s="14"/>
-      <c r="AN172" s="14"/>
-      <c r="AO172" s="14"/>
-      <c r="AP172" s="14"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="AB172" s="15"/>
+      <c r="AI172" s="15"/>
+      <c r="AM172" s="15"/>
+      <c r="AN172" s="15"/>
+      <c r="AO172" s="15"/>
+      <c r="AP172" s="15"/>
     </row>
     <row r="173" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>222</v>
       </c>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
-      <c r="AB173" s="14"/>
-      <c r="AI173" s="14"/>
-      <c r="AM173" s="14"/>
-      <c r="AN173" s="14"/>
-      <c r="AO173" s="14"/>
-      <c r="AP173" s="14"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="AB173" s="15"/>
+      <c r="AI173" s="15"/>
+      <c r="AM173" s="15"/>
+      <c r="AN173" s="15"/>
+      <c r="AO173" s="15"/>
+      <c r="AP173" s="15"/>
     </row>
     <row r="174" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>223</v>
       </c>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
-      <c r="AB174" s="14"/>
-      <c r="AI174" s="14"/>
-      <c r="AM174" s="14"/>
-      <c r="AN174" s="14"/>
-      <c r="AO174" s="14"/>
-      <c r="AP174" s="14"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="AB174" s="15"/>
+      <c r="AI174" s="15"/>
+      <c r="AM174" s="15"/>
+      <c r="AN174" s="15"/>
+      <c r="AO174" s="15"/>
+      <c r="AP174" s="15"/>
     </row>
     <row r="175" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>224</v>
       </c>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
-      <c r="AB175" s="14"/>
-      <c r="AI175" s="14"/>
-      <c r="AM175" s="14"/>
-      <c r="AN175" s="14"/>
-      <c r="AO175" s="14"/>
-      <c r="AP175" s="14"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="AB175" s="15"/>
+      <c r="AI175" s="15"/>
+      <c r="AM175" s="15"/>
+      <c r="AN175" s="15"/>
+      <c r="AO175" s="15"/>
+      <c r="AP175" s="15"/>
     </row>
     <row r="176" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>225</v>
       </c>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
-      <c r="AB176" s="14"/>
-      <c r="AI176" s="14"/>
-      <c r="AM176" s="14"/>
-      <c r="AN176" s="14"/>
-      <c r="AO176" s="14"/>
-      <c r="AP176" s="14"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="AB176" s="15"/>
+      <c r="AI176" s="15"/>
+      <c r="AM176" s="15"/>
+      <c r="AN176" s="15"/>
+      <c r="AO176" s="15"/>
+      <c r="AP176" s="15"/>
     </row>
     <row r="177" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>226</v>
       </c>
-      <c r="I177" s="14"/>
-      <c r="J177" s="14"/>
-      <c r="AB177" s="14"/>
-      <c r="AI177" s="14"/>
-      <c r="AM177" s="14"/>
-      <c r="AN177" s="14"/>
-      <c r="AO177" s="14"/>
-      <c r="AP177" s="14"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="AB177" s="15"/>
+      <c r="AI177" s="15"/>
+      <c r="AM177" s="15"/>
+      <c r="AN177" s="15"/>
+      <c r="AO177" s="15"/>
+      <c r="AP177" s="15"/>
     </row>
     <row r="178" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>227</v>
       </c>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="AB178" s="14"/>
-      <c r="AI178" s="14"/>
-      <c r="AM178" s="14"/>
-      <c r="AN178" s="14"/>
-      <c r="AO178" s="14"/>
-      <c r="AP178" s="14"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="AB178" s="15"/>
+      <c r="AI178" s="15"/>
+      <c r="AM178" s="15"/>
+      <c r="AN178" s="15"/>
+      <c r="AO178" s="15"/>
+      <c r="AP178" s="15"/>
     </row>
     <row r="179" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>228</v>
       </c>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
-      <c r="AB179" s="14"/>
-      <c r="AI179" s="14"/>
-      <c r="AM179" s="14"/>
-      <c r="AN179" s="14"/>
-      <c r="AO179" s="14"/>
-      <c r="AP179" s="14"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="AB179" s="15"/>
+      <c r="AI179" s="15"/>
+      <c r="AM179" s="15"/>
+      <c r="AN179" s="15"/>
+      <c r="AO179" s="15"/>
+      <c r="AP179" s="15"/>
     </row>
     <row r="180" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>229</v>
       </c>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="AB180" s="14"/>
-      <c r="AI180" s="14"/>
-      <c r="AM180" s="14"/>
-      <c r="AN180" s="14"/>
-      <c r="AO180" s="14"/>
-      <c r="AP180" s="14"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="AB180" s="15"/>
+      <c r="AI180" s="15"/>
+      <c r="AM180" s="15"/>
+      <c r="AN180" s="15"/>
+      <c r="AO180" s="15"/>
+      <c r="AP180" s="15"/>
     </row>
     <row r="181" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>230</v>
       </c>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="AB181" s="14"/>
-      <c r="AI181" s="14"/>
-      <c r="AM181" s="14"/>
-      <c r="AN181" s="14"/>
-      <c r="AO181" s="14"/>
-      <c r="AP181" s="14"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="AB181" s="15"/>
+      <c r="AI181" s="15"/>
+      <c r="AM181" s="15"/>
+      <c r="AN181" s="15"/>
+      <c r="AO181" s="15"/>
+      <c r="AP181" s="15"/>
     </row>
     <row r="182" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>231</v>
       </c>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
-      <c r="AB182" s="14"/>
-      <c r="AI182" s="14"/>
-      <c r="AM182" s="14"/>
-      <c r="AN182" s="14"/>
-      <c r="AO182" s="14"/>
-      <c r="AP182" s="14"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="AB182" s="15"/>
+      <c r="AI182" s="15"/>
+      <c r="AM182" s="15"/>
+      <c r="AN182" s="15"/>
+      <c r="AO182" s="15"/>
+      <c r="AP182" s="15"/>
     </row>
     <row r="183" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>232</v>
       </c>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="AB183" s="14"/>
-      <c r="AI183" s="14"/>
-      <c r="AM183" s="14"/>
-      <c r="AN183" s="14"/>
-      <c r="AO183" s="14"/>
-      <c r="AP183" s="14"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="AB183" s="15"/>
+      <c r="AI183" s="15"/>
+      <c r="AM183" s="15"/>
+      <c r="AN183" s="15"/>
+      <c r="AO183" s="15"/>
+      <c r="AP183" s="15"/>
     </row>
     <row r="184" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -5688,28 +5691,28 @@
       <c r="B185" t="s">
         <v>249</v>
       </c>
-      <c r="I185" s="14" t="s">
+      <c r="I185" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J185" s="14" t="s">
+      <c r="J185" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AB185" s="14" t="s">
+      <c r="AB185" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AI185" s="14" t="s">
+      <c r="AI185" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AM185" s="14" t="s">
+      <c r="AM185" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AN185" s="14" t="s">
+      <c r="AN185" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="AO185" s="14" t="s">
+      <c r="AO185" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AP185" s="14" t="s">
+      <c r="AP185" s="15" t="s">
         <v>240</v>
       </c>
       <c r="AU185" s="4"/>
@@ -5734,28 +5737,28 @@
       <c r="BJ185" s="16">
         <v>61</v>
       </c>
-      <c r="BK185" s="15">
+      <c r="BK185" s="17">
         <v>62</v>
       </c>
-      <c r="BL185" s="15">
+      <c r="BL185" s="17">
         <v>63</v>
       </c>
-      <c r="BM185" s="15">
+      <c r="BM185" s="17">
         <v>64</v>
       </c>
-      <c r="BN185" s="15">
+      <c r="BN185" s="17">
         <v>66</v>
       </c>
-      <c r="BO185" s="15">
+      <c r="BO185" s="17">
         <v>67</v>
       </c>
-      <c r="BP185" s="15">
+      <c r="BP185" s="17">
         <v>68</v>
       </c>
-      <c r="BQ185" s="15">
+      <c r="BQ185" s="17">
         <v>69</v>
       </c>
-      <c r="BR185" s="15">
+      <c r="BR185" s="17">
         <v>71</v>
       </c>
     </row>
@@ -5763,769 +5766,769 @@
       <c r="B186" t="s">
         <v>250</v>
       </c>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
-      <c r="AB186" s="14"/>
-      <c r="AI186" s="14"/>
-      <c r="AM186" s="14"/>
-      <c r="AN186" s="14"/>
-      <c r="AO186" s="14"/>
-      <c r="AP186" s="14"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="AB186" s="15"/>
+      <c r="AI186" s="15"/>
+      <c r="AM186" s="15"/>
+      <c r="AN186" s="15"/>
+      <c r="AO186" s="15"/>
+      <c r="AP186" s="15"/>
       <c r="BH186" s="16"/>
       <c r="BI186" s="16"/>
       <c r="BJ186" s="16"/>
-      <c r="BK186" s="15"/>
-      <c r="BL186" s="15"/>
-      <c r="BM186" s="15"/>
-      <c r="BN186" s="15"/>
-      <c r="BO186" s="15"/>
-      <c r="BP186" s="15"/>
-      <c r="BQ186" s="15"/>
-      <c r="BR186" s="15"/>
+      <c r="BK186" s="17"/>
+      <c r="BL186" s="17"/>
+      <c r="BM186" s="17"/>
+      <c r="BN186" s="17"/>
+      <c r="BO186" s="17"/>
+      <c r="BP186" s="17"/>
+      <c r="BQ186" s="17"/>
+      <c r="BR186" s="17"/>
     </row>
     <row r="187" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>251</v>
       </c>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="AB187" s="14"/>
-      <c r="AI187" s="14"/>
-      <c r="AM187" s="14"/>
-      <c r="AN187" s="14"/>
-      <c r="AO187" s="14"/>
-      <c r="AP187" s="14"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="AB187" s="15"/>
+      <c r="AI187" s="15"/>
+      <c r="AM187" s="15"/>
+      <c r="AN187" s="15"/>
+      <c r="AO187" s="15"/>
+      <c r="AP187" s="15"/>
       <c r="BH187" s="16"/>
       <c r="BI187" s="16"/>
       <c r="BJ187" s="16"/>
-      <c r="BK187" s="15"/>
-      <c r="BL187" s="15"/>
-      <c r="BM187" s="15"/>
-      <c r="BN187" s="15"/>
-      <c r="BO187" s="15"/>
-      <c r="BP187" s="15"/>
-      <c r="BQ187" s="15"/>
-      <c r="BR187" s="15"/>
+      <c r="BK187" s="17"/>
+      <c r="BL187" s="17"/>
+      <c r="BM187" s="17"/>
+      <c r="BN187" s="17"/>
+      <c r="BO187" s="17"/>
+      <c r="BP187" s="17"/>
+      <c r="BQ187" s="17"/>
+      <c r="BR187" s="17"/>
     </row>
     <row r="188" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>203</v>
       </c>
-      <c r="I188" s="14"/>
-      <c r="J188" s="14"/>
-      <c r="AB188" s="14"/>
-      <c r="AI188" s="14"/>
-      <c r="AM188" s="14"/>
-      <c r="AN188" s="14"/>
-      <c r="AO188" s="14"/>
-      <c r="AP188" s="14"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="AB188" s="15"/>
+      <c r="AI188" s="15"/>
+      <c r="AM188" s="15"/>
+      <c r="AN188" s="15"/>
+      <c r="AO188" s="15"/>
+      <c r="AP188" s="15"/>
       <c r="BH188" s="16"/>
       <c r="BI188" s="16"/>
       <c r="BJ188" s="16"/>
-      <c r="BK188" s="15"/>
-      <c r="BL188" s="15"/>
-      <c r="BM188" s="15"/>
-      <c r="BN188" s="15"/>
-      <c r="BO188" s="15"/>
-      <c r="BP188" s="15"/>
-      <c r="BQ188" s="15"/>
-      <c r="BR188" s="15"/>
+      <c r="BK188" s="17"/>
+      <c r="BL188" s="17"/>
+      <c r="BM188" s="17"/>
+      <c r="BN188" s="17"/>
+      <c r="BO188" s="17"/>
+      <c r="BP188" s="17"/>
+      <c r="BQ188" s="17"/>
+      <c r="BR188" s="17"/>
     </row>
     <row r="189" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>204</v>
       </c>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="AB189" s="14"/>
-      <c r="AI189" s="14"/>
-      <c r="AM189" s="14"/>
-      <c r="AN189" s="14"/>
-      <c r="AO189" s="14"/>
-      <c r="AP189" s="14"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="AB189" s="15"/>
+      <c r="AI189" s="15"/>
+      <c r="AM189" s="15"/>
+      <c r="AN189" s="15"/>
+      <c r="AO189" s="15"/>
+      <c r="AP189" s="15"/>
       <c r="BH189" s="16"/>
       <c r="BI189" s="16"/>
       <c r="BJ189" s="16"/>
-      <c r="BK189" s="15"/>
-      <c r="BL189" s="15"/>
-      <c r="BM189" s="15"/>
-      <c r="BN189" s="15"/>
-      <c r="BO189" s="15"/>
-      <c r="BP189" s="15"/>
-      <c r="BQ189" s="15"/>
-      <c r="BR189" s="15"/>
+      <c r="BK189" s="17"/>
+      <c r="BL189" s="17"/>
+      <c r="BM189" s="17"/>
+      <c r="BN189" s="17"/>
+      <c r="BO189" s="17"/>
+      <c r="BP189" s="17"/>
+      <c r="BQ189" s="17"/>
+      <c r="BR189" s="17"/>
     </row>
     <row r="190" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>205</v>
       </c>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
-      <c r="AB190" s="14"/>
-      <c r="AI190" s="14"/>
-      <c r="AM190" s="14"/>
-      <c r="AN190" s="14"/>
-      <c r="AO190" s="14"/>
-      <c r="AP190" s="14"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="AB190" s="15"/>
+      <c r="AI190" s="15"/>
+      <c r="AM190" s="15"/>
+      <c r="AN190" s="15"/>
+      <c r="AO190" s="15"/>
+      <c r="AP190" s="15"/>
       <c r="BH190" s="16"/>
       <c r="BI190" s="16"/>
       <c r="BJ190" s="16"/>
-      <c r="BK190" s="15"/>
-      <c r="BL190" s="15"/>
-      <c r="BM190" s="15"/>
-      <c r="BN190" s="15"/>
-      <c r="BO190" s="15"/>
-      <c r="BP190" s="15"/>
-      <c r="BQ190" s="15"/>
-      <c r="BR190" s="15"/>
+      <c r="BK190" s="17"/>
+      <c r="BL190" s="17"/>
+      <c r="BM190" s="17"/>
+      <c r="BN190" s="17"/>
+      <c r="BO190" s="17"/>
+      <c r="BP190" s="17"/>
+      <c r="BQ190" s="17"/>
+      <c r="BR190" s="17"/>
     </row>
     <row r="191" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>206</v>
       </c>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="AB191" s="14"/>
-      <c r="AI191" s="14"/>
-      <c r="AM191" s="14"/>
-      <c r="AN191" s="14"/>
-      <c r="AO191" s="14"/>
-      <c r="AP191" s="14"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="AB191" s="15"/>
+      <c r="AI191" s="15"/>
+      <c r="AM191" s="15"/>
+      <c r="AN191" s="15"/>
+      <c r="AO191" s="15"/>
+      <c r="AP191" s="15"/>
       <c r="BH191" s="16"/>
       <c r="BI191" s="16"/>
       <c r="BJ191" s="16"/>
-      <c r="BK191" s="15"/>
-      <c r="BL191" s="15"/>
-      <c r="BM191" s="15"/>
-      <c r="BN191" s="15"/>
-      <c r="BO191" s="15"/>
-      <c r="BP191" s="15"/>
-      <c r="BQ191" s="15"/>
-      <c r="BR191" s="15"/>
+      <c r="BK191" s="17"/>
+      <c r="BL191" s="17"/>
+      <c r="BM191" s="17"/>
+      <c r="BN191" s="17"/>
+      <c r="BO191" s="17"/>
+      <c r="BP191" s="17"/>
+      <c r="BQ191" s="17"/>
+      <c r="BR191" s="17"/>
     </row>
     <row r="192" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>207</v>
       </c>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
-      <c r="AB192" s="14"/>
-      <c r="AI192" s="14"/>
-      <c r="AM192" s="14"/>
-      <c r="AN192" s="14"/>
-      <c r="AO192" s="14"/>
-      <c r="AP192" s="14"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="AB192" s="15"/>
+      <c r="AI192" s="15"/>
+      <c r="AM192" s="15"/>
+      <c r="AN192" s="15"/>
+      <c r="AO192" s="15"/>
+      <c r="AP192" s="15"/>
       <c r="BH192" s="16"/>
       <c r="BI192" s="16"/>
       <c r="BJ192" s="16"/>
-      <c r="BK192" s="15"/>
-      <c r="BL192" s="15"/>
-      <c r="BM192" s="15"/>
-      <c r="BN192" s="15"/>
-      <c r="BO192" s="15"/>
-      <c r="BP192" s="15"/>
-      <c r="BQ192" s="15"/>
-      <c r="BR192" s="15"/>
+      <c r="BK192" s="17"/>
+      <c r="BL192" s="17"/>
+      <c r="BM192" s="17"/>
+      <c r="BN192" s="17"/>
+      <c r="BO192" s="17"/>
+      <c r="BP192" s="17"/>
+      <c r="BQ192" s="17"/>
+      <c r="BR192" s="17"/>
     </row>
     <row r="193" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>208</v>
       </c>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14"/>
-      <c r="AB193" s="14"/>
-      <c r="AI193" s="14"/>
-      <c r="AM193" s="14"/>
-      <c r="AN193" s="14"/>
-      <c r="AO193" s="14"/>
-      <c r="AP193" s="14"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="AB193" s="15"/>
+      <c r="AI193" s="15"/>
+      <c r="AM193" s="15"/>
+      <c r="AN193" s="15"/>
+      <c r="AO193" s="15"/>
+      <c r="AP193" s="15"/>
       <c r="BH193" s="16"/>
       <c r="BI193" s="16"/>
       <c r="BJ193" s="16"/>
-      <c r="BK193" s="15"/>
-      <c r="BL193" s="15"/>
-      <c r="BM193" s="15"/>
-      <c r="BN193" s="15"/>
-      <c r="BO193" s="15"/>
-      <c r="BP193" s="15"/>
-      <c r="BQ193" s="15"/>
-      <c r="BR193" s="15"/>
+      <c r="BK193" s="17"/>
+      <c r="BL193" s="17"/>
+      <c r="BM193" s="17"/>
+      <c r="BN193" s="17"/>
+      <c r="BO193" s="17"/>
+      <c r="BP193" s="17"/>
+      <c r="BQ193" s="17"/>
+      <c r="BR193" s="17"/>
     </row>
     <row r="194" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>209</v>
       </c>
-      <c r="I194" s="14"/>
-      <c r="J194" s="14"/>
-      <c r="AB194" s="14"/>
-      <c r="AI194" s="14"/>
-      <c r="AM194" s="14"/>
-      <c r="AN194" s="14"/>
-      <c r="AO194" s="14"/>
-      <c r="AP194" s="14"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="AB194" s="15"/>
+      <c r="AI194" s="15"/>
+      <c r="AM194" s="15"/>
+      <c r="AN194" s="15"/>
+      <c r="AO194" s="15"/>
+      <c r="AP194" s="15"/>
       <c r="BH194" s="16"/>
       <c r="BI194" s="16"/>
       <c r="BJ194" s="16"/>
-      <c r="BK194" s="15"/>
-      <c r="BL194" s="15"/>
-      <c r="BM194" s="15"/>
-      <c r="BN194" s="15"/>
-      <c r="BO194" s="15"/>
-      <c r="BP194" s="15"/>
-      <c r="BQ194" s="15"/>
-      <c r="BR194" s="15"/>
+      <c r="BK194" s="17"/>
+      <c r="BL194" s="17"/>
+      <c r="BM194" s="17"/>
+      <c r="BN194" s="17"/>
+      <c r="BO194" s="17"/>
+      <c r="BP194" s="17"/>
+      <c r="BQ194" s="17"/>
+      <c r="BR194" s="17"/>
     </row>
     <row r="195" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>210</v>
       </c>
-      <c r="I195" s="14"/>
-      <c r="J195" s="14"/>
-      <c r="AB195" s="14"/>
-      <c r="AI195" s="14"/>
-      <c r="AM195" s="14"/>
-      <c r="AN195" s="14"/>
-      <c r="AO195" s="14"/>
-      <c r="AP195" s="14"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="AB195" s="15"/>
+      <c r="AI195" s="15"/>
+      <c r="AM195" s="15"/>
+      <c r="AN195" s="15"/>
+      <c r="AO195" s="15"/>
+      <c r="AP195" s="15"/>
       <c r="BH195" s="16"/>
       <c r="BI195" s="16"/>
       <c r="BJ195" s="16"/>
-      <c r="BK195" s="15"/>
-      <c r="BL195" s="15"/>
-      <c r="BM195" s="15"/>
-      <c r="BN195" s="15"/>
-      <c r="BO195" s="15"/>
-      <c r="BP195" s="15"/>
-      <c r="BQ195" s="15"/>
-      <c r="BR195" s="15"/>
+      <c r="BK195" s="17"/>
+      <c r="BL195" s="17"/>
+      <c r="BM195" s="17"/>
+      <c r="BN195" s="17"/>
+      <c r="BO195" s="17"/>
+      <c r="BP195" s="17"/>
+      <c r="BQ195" s="17"/>
+      <c r="BR195" s="17"/>
     </row>
     <row r="196" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>211</v>
       </c>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
-      <c r="AB196" s="14"/>
-      <c r="AI196" s="14"/>
-      <c r="AM196" s="14"/>
-      <c r="AN196" s="14"/>
-      <c r="AO196" s="14"/>
-      <c r="AP196" s="14"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="AB196" s="15"/>
+      <c r="AI196" s="15"/>
+      <c r="AM196" s="15"/>
+      <c r="AN196" s="15"/>
+      <c r="AO196" s="15"/>
+      <c r="AP196" s="15"/>
       <c r="BH196" s="16"/>
       <c r="BI196" s="16"/>
       <c r="BJ196" s="16"/>
-      <c r="BK196" s="15"/>
-      <c r="BL196" s="15"/>
-      <c r="BM196" s="15"/>
-      <c r="BN196" s="15"/>
-      <c r="BO196" s="15"/>
-      <c r="BP196" s="15"/>
-      <c r="BQ196" s="15"/>
-      <c r="BR196" s="15"/>
+      <c r="BK196" s="17"/>
+      <c r="BL196" s="17"/>
+      <c r="BM196" s="17"/>
+      <c r="BN196" s="17"/>
+      <c r="BO196" s="17"/>
+      <c r="BP196" s="17"/>
+      <c r="BQ196" s="17"/>
+      <c r="BR196" s="17"/>
     </row>
     <row r="197" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>212</v>
       </c>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
-      <c r="AB197" s="14"/>
-      <c r="AI197" s="14"/>
-      <c r="AM197" s="14"/>
-      <c r="AN197" s="14"/>
-      <c r="AO197" s="14"/>
-      <c r="AP197" s="14"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="AB197" s="15"/>
+      <c r="AI197" s="15"/>
+      <c r="AM197" s="15"/>
+      <c r="AN197" s="15"/>
+      <c r="AO197" s="15"/>
+      <c r="AP197" s="15"/>
       <c r="BH197" s="16"/>
       <c r="BI197" s="16"/>
       <c r="BJ197" s="16"/>
-      <c r="BK197" s="15"/>
-      <c r="BL197" s="15"/>
-      <c r="BM197" s="15"/>
-      <c r="BN197" s="15"/>
-      <c r="BO197" s="15"/>
-      <c r="BP197" s="15"/>
-      <c r="BQ197" s="15"/>
-      <c r="BR197" s="15"/>
+      <c r="BK197" s="17"/>
+      <c r="BL197" s="17"/>
+      <c r="BM197" s="17"/>
+      <c r="BN197" s="17"/>
+      <c r="BO197" s="17"/>
+      <c r="BP197" s="17"/>
+      <c r="BQ197" s="17"/>
+      <c r="BR197" s="17"/>
     </row>
     <row r="198" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>213</v>
       </c>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
-      <c r="AB198" s="14"/>
-      <c r="AI198" s="14"/>
-      <c r="AM198" s="14"/>
-      <c r="AN198" s="14"/>
-      <c r="AO198" s="14"/>
-      <c r="AP198" s="14"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="AB198" s="15"/>
+      <c r="AI198" s="15"/>
+      <c r="AM198" s="15"/>
+      <c r="AN198" s="15"/>
+      <c r="AO198" s="15"/>
+      <c r="AP198" s="15"/>
       <c r="BH198" s="16"/>
       <c r="BI198" s="16"/>
       <c r="BJ198" s="16"/>
-      <c r="BK198" s="15"/>
-      <c r="BL198" s="15"/>
-      <c r="BM198" s="15"/>
-      <c r="BN198" s="15"/>
-      <c r="BO198" s="15"/>
-      <c r="BP198" s="15"/>
-      <c r="BQ198" s="15"/>
-      <c r="BR198" s="15"/>
+      <c r="BK198" s="17"/>
+      <c r="BL198" s="17"/>
+      <c r="BM198" s="17"/>
+      <c r="BN198" s="17"/>
+      <c r="BO198" s="17"/>
+      <c r="BP198" s="17"/>
+      <c r="BQ198" s="17"/>
+      <c r="BR198" s="17"/>
     </row>
     <row r="199" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>214</v>
       </c>
-      <c r="I199" s="14"/>
-      <c r="J199" s="14"/>
-      <c r="AB199" s="14"/>
-      <c r="AI199" s="14"/>
-      <c r="AM199" s="14"/>
-      <c r="AN199" s="14"/>
-      <c r="AO199" s="14"/>
-      <c r="AP199" s="14"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="AB199" s="15"/>
+      <c r="AI199" s="15"/>
+      <c r="AM199" s="15"/>
+      <c r="AN199" s="15"/>
+      <c r="AO199" s="15"/>
+      <c r="AP199" s="15"/>
       <c r="BH199" s="16"/>
       <c r="BI199" s="16"/>
       <c r="BJ199" s="16"/>
-      <c r="BK199" s="15"/>
-      <c r="BL199" s="15"/>
-      <c r="BM199" s="15"/>
-      <c r="BN199" s="15"/>
-      <c r="BO199" s="15"/>
-      <c r="BP199" s="15"/>
-      <c r="BQ199" s="15"/>
-      <c r="BR199" s="15"/>
+      <c r="BK199" s="17"/>
+      <c r="BL199" s="17"/>
+      <c r="BM199" s="17"/>
+      <c r="BN199" s="17"/>
+      <c r="BO199" s="17"/>
+      <c r="BP199" s="17"/>
+      <c r="BQ199" s="17"/>
+      <c r="BR199" s="17"/>
     </row>
     <row r="200" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>215</v>
       </c>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
-      <c r="AB200" s="14"/>
-      <c r="AI200" s="14"/>
-      <c r="AM200" s="14"/>
-      <c r="AN200" s="14"/>
-      <c r="AO200" s="14"/>
-      <c r="AP200" s="14"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="AB200" s="15"/>
+      <c r="AI200" s="15"/>
+      <c r="AM200" s="15"/>
+      <c r="AN200" s="15"/>
+      <c r="AO200" s="15"/>
+      <c r="AP200" s="15"/>
       <c r="BH200" s="16"/>
       <c r="BI200" s="16"/>
       <c r="BJ200" s="16"/>
-      <c r="BK200" s="15"/>
-      <c r="BL200" s="15"/>
-      <c r="BM200" s="15"/>
-      <c r="BN200" s="15"/>
-      <c r="BO200" s="15"/>
-      <c r="BP200" s="15"/>
-      <c r="BQ200" s="15"/>
-      <c r="BR200" s="15"/>
+      <c r="BK200" s="17"/>
+      <c r="BL200" s="17"/>
+      <c r="BM200" s="17"/>
+      <c r="BN200" s="17"/>
+      <c r="BO200" s="17"/>
+      <c r="BP200" s="17"/>
+      <c r="BQ200" s="17"/>
+      <c r="BR200" s="17"/>
     </row>
     <row r="201" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>216</v>
       </c>
-      <c r="I201" s="14"/>
-      <c r="J201" s="14"/>
-      <c r="AB201" s="14"/>
-      <c r="AI201" s="14"/>
-      <c r="AM201" s="14"/>
-      <c r="AN201" s="14"/>
-      <c r="AO201" s="14"/>
-      <c r="AP201" s="14"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="AB201" s="15"/>
+      <c r="AI201" s="15"/>
+      <c r="AM201" s="15"/>
+      <c r="AN201" s="15"/>
+      <c r="AO201" s="15"/>
+      <c r="AP201" s="15"/>
       <c r="BH201" s="16"/>
       <c r="BI201" s="16"/>
       <c r="BJ201" s="16"/>
-      <c r="BK201" s="15"/>
-      <c r="BL201" s="15"/>
-      <c r="BM201" s="15"/>
-      <c r="BN201" s="15"/>
-      <c r="BO201" s="15"/>
-      <c r="BP201" s="15"/>
-      <c r="BQ201" s="15"/>
-      <c r="BR201" s="15"/>
+      <c r="BK201" s="17"/>
+      <c r="BL201" s="17"/>
+      <c r="BM201" s="17"/>
+      <c r="BN201" s="17"/>
+      <c r="BO201" s="17"/>
+      <c r="BP201" s="17"/>
+      <c r="BQ201" s="17"/>
+      <c r="BR201" s="17"/>
     </row>
     <row r="202" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>217</v>
       </c>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="AB202" s="14"/>
-      <c r="AI202" s="14"/>
-      <c r="AM202" s="14"/>
-      <c r="AN202" s="14"/>
-      <c r="AO202" s="14"/>
-      <c r="AP202" s="14"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+      <c r="AB202" s="15"/>
+      <c r="AI202" s="15"/>
+      <c r="AM202" s="15"/>
+      <c r="AN202" s="15"/>
+      <c r="AO202" s="15"/>
+      <c r="AP202" s="15"/>
       <c r="BH202" s="16"/>
       <c r="BI202" s="16"/>
       <c r="BJ202" s="16"/>
-      <c r="BK202" s="15"/>
-      <c r="BL202" s="15"/>
-      <c r="BM202" s="15"/>
-      <c r="BN202" s="15"/>
-      <c r="BO202" s="15"/>
-      <c r="BP202" s="15"/>
-      <c r="BQ202" s="15"/>
-      <c r="BR202" s="15"/>
+      <c r="BK202" s="17"/>
+      <c r="BL202" s="17"/>
+      <c r="BM202" s="17"/>
+      <c r="BN202" s="17"/>
+      <c r="BO202" s="17"/>
+      <c r="BP202" s="17"/>
+      <c r="BQ202" s="17"/>
+      <c r="BR202" s="17"/>
     </row>
     <row r="203" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>218</v>
       </c>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="AB203" s="14"/>
-      <c r="AI203" s="14"/>
-      <c r="AM203" s="14"/>
-      <c r="AN203" s="14"/>
-      <c r="AO203" s="14"/>
-      <c r="AP203" s="14"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="AB203" s="15"/>
+      <c r="AI203" s="15"/>
+      <c r="AM203" s="15"/>
+      <c r="AN203" s="15"/>
+      <c r="AO203" s="15"/>
+      <c r="AP203" s="15"/>
       <c r="BH203" s="16"/>
       <c r="BI203" s="16"/>
       <c r="BJ203" s="16"/>
-      <c r="BK203" s="15"/>
-      <c r="BL203" s="15"/>
-      <c r="BM203" s="15"/>
-      <c r="BN203" s="15"/>
-      <c r="BO203" s="15"/>
-      <c r="BP203" s="15"/>
-      <c r="BQ203" s="15"/>
-      <c r="BR203" s="15"/>
+      <c r="BK203" s="17"/>
+      <c r="BL203" s="17"/>
+      <c r="BM203" s="17"/>
+      <c r="BN203" s="17"/>
+      <c r="BO203" s="17"/>
+      <c r="BP203" s="17"/>
+      <c r="BQ203" s="17"/>
+      <c r="BR203" s="17"/>
     </row>
     <row r="204" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>219</v>
       </c>
-      <c r="I204" s="14"/>
-      <c r="J204" s="14"/>
-      <c r="AB204" s="14"/>
-      <c r="AI204" s="14"/>
-      <c r="AM204" s="14"/>
-      <c r="AN204" s="14"/>
-      <c r="AO204" s="14"/>
-      <c r="AP204" s="14"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="AB204" s="15"/>
+      <c r="AI204" s="15"/>
+      <c r="AM204" s="15"/>
+      <c r="AN204" s="15"/>
+      <c r="AO204" s="15"/>
+      <c r="AP204" s="15"/>
       <c r="BH204" s="16"/>
       <c r="BI204" s="16"/>
       <c r="BJ204" s="16"/>
-      <c r="BK204" s="15"/>
-      <c r="BL204" s="15"/>
-      <c r="BM204" s="15"/>
-      <c r="BN204" s="15"/>
-      <c r="BO204" s="15"/>
-      <c r="BP204" s="15"/>
-      <c r="BQ204" s="15"/>
-      <c r="BR204" s="15"/>
+      <c r="BK204" s="17"/>
+      <c r="BL204" s="17"/>
+      <c r="BM204" s="17"/>
+      <c r="BN204" s="17"/>
+      <c r="BO204" s="17"/>
+      <c r="BP204" s="17"/>
+      <c r="BQ204" s="17"/>
+      <c r="BR204" s="17"/>
     </row>
     <row r="205" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>220</v>
       </c>
-      <c r="I205" s="14"/>
-      <c r="J205" s="14"/>
-      <c r="AB205" s="14"/>
-      <c r="AI205" s="14"/>
-      <c r="AM205" s="14"/>
-      <c r="AN205" s="14"/>
-      <c r="AO205" s="14"/>
-      <c r="AP205" s="14"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="AB205" s="15"/>
+      <c r="AI205" s="15"/>
+      <c r="AM205" s="15"/>
+      <c r="AN205" s="15"/>
+      <c r="AO205" s="15"/>
+      <c r="AP205" s="15"/>
       <c r="BH205" s="16"/>
       <c r="BI205" s="16"/>
       <c r="BJ205" s="16"/>
-      <c r="BK205" s="15"/>
-      <c r="BL205" s="15"/>
-      <c r="BM205" s="15"/>
-      <c r="BN205" s="15"/>
-      <c r="BO205" s="15"/>
-      <c r="BP205" s="15"/>
-      <c r="BQ205" s="15"/>
-      <c r="BR205" s="15"/>
+      <c r="BK205" s="17"/>
+      <c r="BL205" s="17"/>
+      <c r="BM205" s="17"/>
+      <c r="BN205" s="17"/>
+      <c r="BO205" s="17"/>
+      <c r="BP205" s="17"/>
+      <c r="BQ205" s="17"/>
+      <c r="BR205" s="17"/>
     </row>
     <row r="206" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>221</v>
       </c>
-      <c r="I206" s="14"/>
-      <c r="J206" s="14"/>
-      <c r="AB206" s="14"/>
-      <c r="AI206" s="14"/>
-      <c r="AM206" s="14"/>
-      <c r="AN206" s="14"/>
-      <c r="AO206" s="14"/>
-      <c r="AP206" s="14"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="AB206" s="15"/>
+      <c r="AI206" s="15"/>
+      <c r="AM206" s="15"/>
+      <c r="AN206" s="15"/>
+      <c r="AO206" s="15"/>
+      <c r="AP206" s="15"/>
       <c r="BH206" s="16"/>
       <c r="BI206" s="16"/>
       <c r="BJ206" s="16"/>
-      <c r="BK206" s="15"/>
-      <c r="BL206" s="15"/>
-      <c r="BM206" s="15"/>
-      <c r="BN206" s="15"/>
-      <c r="BO206" s="15"/>
-      <c r="BP206" s="15"/>
-      <c r="BQ206" s="15"/>
-      <c r="BR206" s="15"/>
+      <c r="BK206" s="17"/>
+      <c r="BL206" s="17"/>
+      <c r="BM206" s="17"/>
+      <c r="BN206" s="17"/>
+      <c r="BO206" s="17"/>
+      <c r="BP206" s="17"/>
+      <c r="BQ206" s="17"/>
+      <c r="BR206" s="17"/>
     </row>
     <row r="207" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>222</v>
       </c>
-      <c r="I207" s="14"/>
-      <c r="J207" s="14"/>
-      <c r="AB207" s="14"/>
-      <c r="AI207" s="14"/>
-      <c r="AM207" s="14"/>
-      <c r="AN207" s="14"/>
-      <c r="AO207" s="14"/>
-      <c r="AP207" s="14"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="AB207" s="15"/>
+      <c r="AI207" s="15"/>
+      <c r="AM207" s="15"/>
+      <c r="AN207" s="15"/>
+      <c r="AO207" s="15"/>
+      <c r="AP207" s="15"/>
       <c r="BH207" s="16"/>
       <c r="BI207" s="16"/>
       <c r="BJ207" s="16"/>
-      <c r="BK207" s="15"/>
-      <c r="BL207" s="15"/>
-      <c r="BM207" s="15"/>
-      <c r="BN207" s="15"/>
-      <c r="BO207" s="15"/>
-      <c r="BP207" s="15"/>
-      <c r="BQ207" s="15"/>
-      <c r="BR207" s="15"/>
+      <c r="BK207" s="17"/>
+      <c r="BL207" s="17"/>
+      <c r="BM207" s="17"/>
+      <c r="BN207" s="17"/>
+      <c r="BO207" s="17"/>
+      <c r="BP207" s="17"/>
+      <c r="BQ207" s="17"/>
+      <c r="BR207" s="17"/>
     </row>
     <row r="208" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>223</v>
       </c>
-      <c r="I208" s="14"/>
-      <c r="J208" s="14"/>
-      <c r="AB208" s="14"/>
-      <c r="AI208" s="14"/>
-      <c r="AM208" s="14"/>
-      <c r="AN208" s="14"/>
-      <c r="AO208" s="14"/>
-      <c r="AP208" s="14"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="AB208" s="15"/>
+      <c r="AI208" s="15"/>
+      <c r="AM208" s="15"/>
+      <c r="AN208" s="15"/>
+      <c r="AO208" s="15"/>
+      <c r="AP208" s="15"/>
       <c r="BH208" s="16"/>
       <c r="BI208" s="16"/>
       <c r="BJ208" s="16"/>
-      <c r="BK208" s="15"/>
-      <c r="BL208" s="15"/>
-      <c r="BM208" s="15"/>
-      <c r="BN208" s="15"/>
-      <c r="BO208" s="15"/>
-      <c r="BP208" s="15"/>
-      <c r="BQ208" s="15"/>
-      <c r="BR208" s="15"/>
+      <c r="BK208" s="17"/>
+      <c r="BL208" s="17"/>
+      <c r="BM208" s="17"/>
+      <c r="BN208" s="17"/>
+      <c r="BO208" s="17"/>
+      <c r="BP208" s="17"/>
+      <c r="BQ208" s="17"/>
+      <c r="BR208" s="17"/>
     </row>
     <row r="209" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>224</v>
       </c>
-      <c r="I209" s="14"/>
-      <c r="J209" s="14"/>
-      <c r="AB209" s="14"/>
-      <c r="AI209" s="14"/>
-      <c r="AM209" s="14"/>
-      <c r="AN209" s="14"/>
-      <c r="AO209" s="14"/>
-      <c r="AP209" s="14"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="AB209" s="15"/>
+      <c r="AI209" s="15"/>
+      <c r="AM209" s="15"/>
+      <c r="AN209" s="15"/>
+      <c r="AO209" s="15"/>
+      <c r="AP209" s="15"/>
       <c r="BH209" s="16"/>
       <c r="BI209" s="16"/>
       <c r="BJ209" s="16"/>
-      <c r="BK209" s="15"/>
-      <c r="BL209" s="15"/>
-      <c r="BM209" s="15"/>
-      <c r="BN209" s="15"/>
-      <c r="BO209" s="15"/>
-      <c r="BP209" s="15"/>
-      <c r="BQ209" s="15"/>
-      <c r="BR209" s="15"/>
+      <c r="BK209" s="17"/>
+      <c r="BL209" s="17"/>
+      <c r="BM209" s="17"/>
+      <c r="BN209" s="17"/>
+      <c r="BO209" s="17"/>
+      <c r="BP209" s="17"/>
+      <c r="BQ209" s="17"/>
+      <c r="BR209" s="17"/>
     </row>
     <row r="210" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>225</v>
       </c>
-      <c r="I210" s="14"/>
-      <c r="J210" s="14"/>
-      <c r="AB210" s="14"/>
-      <c r="AI210" s="14"/>
-      <c r="AM210" s="14"/>
-      <c r="AN210" s="14"/>
-      <c r="AO210" s="14"/>
-      <c r="AP210" s="14"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="AB210" s="15"/>
+      <c r="AI210" s="15"/>
+      <c r="AM210" s="15"/>
+      <c r="AN210" s="15"/>
+      <c r="AO210" s="15"/>
+      <c r="AP210" s="15"/>
       <c r="BH210" s="16"/>
       <c r="BI210" s="16"/>
       <c r="BJ210" s="16"/>
-      <c r="BK210" s="15"/>
-      <c r="BL210" s="15"/>
-      <c r="BM210" s="15"/>
-      <c r="BN210" s="15"/>
-      <c r="BO210" s="15"/>
-      <c r="BP210" s="15"/>
-      <c r="BQ210" s="15"/>
-      <c r="BR210" s="15"/>
+      <c r="BK210" s="17"/>
+      <c r="BL210" s="17"/>
+      <c r="BM210" s="17"/>
+      <c r="BN210" s="17"/>
+      <c r="BO210" s="17"/>
+      <c r="BP210" s="17"/>
+      <c r="BQ210" s="17"/>
+      <c r="BR210" s="17"/>
     </row>
     <row r="211" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>226</v>
       </c>
-      <c r="I211" s="14"/>
-      <c r="J211" s="14"/>
-      <c r="AB211" s="14"/>
-      <c r="AI211" s="14"/>
-      <c r="AM211" s="14"/>
-      <c r="AN211" s="14"/>
-      <c r="AO211" s="14"/>
-      <c r="AP211" s="14"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="AB211" s="15"/>
+      <c r="AI211" s="15"/>
+      <c r="AM211" s="15"/>
+      <c r="AN211" s="15"/>
+      <c r="AO211" s="15"/>
+      <c r="AP211" s="15"/>
       <c r="BH211" s="16"/>
       <c r="BI211" s="16"/>
       <c r="BJ211" s="16"/>
-      <c r="BK211" s="15"/>
-      <c r="BL211" s="15"/>
-      <c r="BM211" s="15"/>
-      <c r="BN211" s="15"/>
-      <c r="BO211" s="15"/>
-      <c r="BP211" s="15"/>
-      <c r="BQ211" s="15"/>
-      <c r="BR211" s="15"/>
+      <c r="BK211" s="17"/>
+      <c r="BL211" s="17"/>
+      <c r="BM211" s="17"/>
+      <c r="BN211" s="17"/>
+      <c r="BO211" s="17"/>
+      <c r="BP211" s="17"/>
+      <c r="BQ211" s="17"/>
+      <c r="BR211" s="17"/>
     </row>
     <row r="212" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>227</v>
       </c>
-      <c r="I212" s="14"/>
-      <c r="J212" s="14"/>
-      <c r="AB212" s="14"/>
-      <c r="AI212" s="14"/>
-      <c r="AM212" s="14"/>
-      <c r="AN212" s="14"/>
-      <c r="AO212" s="14"/>
-      <c r="AP212" s="14"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="AB212" s="15"/>
+      <c r="AI212" s="15"/>
+      <c r="AM212" s="15"/>
+      <c r="AN212" s="15"/>
+      <c r="AO212" s="15"/>
+      <c r="AP212" s="15"/>
       <c r="BH212" s="16"/>
       <c r="BI212" s="16"/>
       <c r="BJ212" s="16"/>
-      <c r="BK212" s="15"/>
-      <c r="BL212" s="15"/>
-      <c r="BM212" s="15"/>
-      <c r="BN212" s="15"/>
-      <c r="BO212" s="15"/>
-      <c r="BP212" s="15"/>
-      <c r="BQ212" s="15"/>
-      <c r="BR212" s="15"/>
+      <c r="BK212" s="17"/>
+      <c r="BL212" s="17"/>
+      <c r="BM212" s="17"/>
+      <c r="BN212" s="17"/>
+      <c r="BO212" s="17"/>
+      <c r="BP212" s="17"/>
+      <c r="BQ212" s="17"/>
+      <c r="BR212" s="17"/>
     </row>
     <row r="213" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>228</v>
       </c>
-      <c r="I213" s="14"/>
-      <c r="J213" s="14"/>
-      <c r="AB213" s="14"/>
-      <c r="AI213" s="14"/>
-      <c r="AM213" s="14"/>
-      <c r="AN213" s="14"/>
-      <c r="AO213" s="14"/>
-      <c r="AP213" s="14"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="AB213" s="15"/>
+      <c r="AI213" s="15"/>
+      <c r="AM213" s="15"/>
+      <c r="AN213" s="15"/>
+      <c r="AO213" s="15"/>
+      <c r="AP213" s="15"/>
       <c r="BH213" s="16"/>
       <c r="BI213" s="16"/>
       <c r="BJ213" s="16"/>
-      <c r="BK213" s="15"/>
-      <c r="BL213" s="15"/>
-      <c r="BM213" s="15"/>
-      <c r="BN213" s="15"/>
-      <c r="BO213" s="15"/>
-      <c r="BP213" s="15"/>
-      <c r="BQ213" s="15"/>
-      <c r="BR213" s="15"/>
+      <c r="BK213" s="17"/>
+      <c r="BL213" s="17"/>
+      <c r="BM213" s="17"/>
+      <c r="BN213" s="17"/>
+      <c r="BO213" s="17"/>
+      <c r="BP213" s="17"/>
+      <c r="BQ213" s="17"/>
+      <c r="BR213" s="17"/>
     </row>
     <row r="214" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>229</v>
       </c>
-      <c r="I214" s="14"/>
-      <c r="J214" s="14"/>
-      <c r="AB214" s="14"/>
-      <c r="AI214" s="14"/>
-      <c r="AM214" s="14"/>
-      <c r="AN214" s="14"/>
-      <c r="AO214" s="14"/>
-      <c r="AP214" s="14"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="AB214" s="15"/>
+      <c r="AI214" s="15"/>
+      <c r="AM214" s="15"/>
+      <c r="AN214" s="15"/>
+      <c r="AO214" s="15"/>
+      <c r="AP214" s="15"/>
       <c r="BH214" s="16"/>
       <c r="BI214" s="16"/>
       <c r="BJ214" s="16"/>
-      <c r="BK214" s="15"/>
-      <c r="BL214" s="15"/>
-      <c r="BM214" s="15"/>
-      <c r="BN214" s="15"/>
-      <c r="BO214" s="15"/>
-      <c r="BP214" s="15"/>
-      <c r="BQ214" s="15"/>
-      <c r="BR214" s="15"/>
+      <c r="BK214" s="17"/>
+      <c r="BL214" s="17"/>
+      <c r="BM214" s="17"/>
+      <c r="BN214" s="17"/>
+      <c r="BO214" s="17"/>
+      <c r="BP214" s="17"/>
+      <c r="BQ214" s="17"/>
+      <c r="BR214" s="17"/>
     </row>
     <row r="215" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>230</v>
       </c>
-      <c r="I215" s="14"/>
-      <c r="J215" s="14"/>
-      <c r="AB215" s="14"/>
-      <c r="AI215" s="14"/>
-      <c r="AM215" s="14"/>
-      <c r="AN215" s="14"/>
-      <c r="AO215" s="14"/>
-      <c r="AP215" s="14"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="AB215" s="15"/>
+      <c r="AI215" s="15"/>
+      <c r="AM215" s="15"/>
+      <c r="AN215" s="15"/>
+      <c r="AO215" s="15"/>
+      <c r="AP215" s="15"/>
       <c r="BH215" s="16"/>
       <c r="BI215" s="16"/>
       <c r="BJ215" s="16"/>
-      <c r="BK215" s="15"/>
-      <c r="BL215" s="15"/>
-      <c r="BM215" s="15"/>
-      <c r="BN215" s="15"/>
-      <c r="BO215" s="15"/>
-      <c r="BP215" s="15"/>
-      <c r="BQ215" s="15"/>
-      <c r="BR215" s="15"/>
+      <c r="BK215" s="17"/>
+      <c r="BL215" s="17"/>
+      <c r="BM215" s="17"/>
+      <c r="BN215" s="17"/>
+      <c r="BO215" s="17"/>
+      <c r="BP215" s="17"/>
+      <c r="BQ215" s="17"/>
+      <c r="BR215" s="17"/>
     </row>
     <row r="216" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>231</v>
       </c>
-      <c r="I216" s="14"/>
-      <c r="J216" s="14"/>
-      <c r="AB216" s="14"/>
-      <c r="AI216" s="14"/>
-      <c r="AM216" s="14"/>
-      <c r="AN216" s="14"/>
-      <c r="AO216" s="14"/>
-      <c r="AP216" s="14"/>
+      <c r="I216" s="15"/>
+      <c r="J216" s="15"/>
+      <c r="AB216" s="15"/>
+      <c r="AI216" s="15"/>
+      <c r="AM216" s="15"/>
+      <c r="AN216" s="15"/>
+      <c r="AO216" s="15"/>
+      <c r="AP216" s="15"/>
       <c r="BH216" s="16"/>
       <c r="BI216" s="16"/>
       <c r="BJ216" s="16"/>
-      <c r="BK216" s="15"/>
-      <c r="BL216" s="15"/>
-      <c r="BM216" s="15"/>
-      <c r="BN216" s="15"/>
-      <c r="BO216" s="15"/>
-      <c r="BP216" s="15"/>
-      <c r="BQ216" s="15"/>
-      <c r="BR216" s="15"/>
+      <c r="BK216" s="17"/>
+      <c r="BL216" s="17"/>
+      <c r="BM216" s="17"/>
+      <c r="BN216" s="17"/>
+      <c r="BO216" s="17"/>
+      <c r="BP216" s="17"/>
+      <c r="BQ216" s="17"/>
+      <c r="BR216" s="17"/>
     </row>
     <row r="217" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>232</v>
       </c>
-      <c r="I217" s="14"/>
-      <c r="J217" s="14"/>
-      <c r="AB217" s="14"/>
-      <c r="AI217" s="14"/>
-      <c r="AM217" s="14"/>
-      <c r="AN217" s="14"/>
-      <c r="AO217" s="14"/>
-      <c r="AP217" s="14"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="AB217" s="15"/>
+      <c r="AI217" s="15"/>
+      <c r="AM217" s="15"/>
+      <c r="AN217" s="15"/>
+      <c r="AO217" s="15"/>
+      <c r="AP217" s="15"/>
       <c r="BH217" s="16"/>
       <c r="BI217" s="16"/>
       <c r="BJ217" s="16"/>
-      <c r="BK217" s="15"/>
-      <c r="BL217" s="15"/>
-      <c r="BM217" s="15"/>
-      <c r="BN217" s="15"/>
-      <c r="BO217" s="15"/>
-      <c r="BP217" s="15"/>
-      <c r="BQ217" s="15"/>
-      <c r="BR217" s="15"/>
+      <c r="BK217" s="17"/>
+      <c r="BL217" s="17"/>
+      <c r="BM217" s="17"/>
+      <c r="BN217" s="17"/>
+      <c r="BO217" s="17"/>
+      <c r="BP217" s="17"/>
+      <c r="BQ217" s="17"/>
+      <c r="BR217" s="17"/>
     </row>
     <row r="218" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -6589,7 +6592,7 @@
       <c r="B220" t="s">
         <v>256</v>
       </c>
-      <c r="AN220" s="14" t="s">
+      <c r="AN220" s="15" t="s">
         <v>115</v>
       </c>
       <c r="AZ220" s="18">
@@ -6600,14 +6603,14 @@
       <c r="B221" t="s">
         <v>113</v>
       </c>
-      <c r="AN221" s="14"/>
+      <c r="AN221" s="15"/>
       <c r="AZ221" s="18"/>
     </row>
     <row r="222" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>114</v>
       </c>
-      <c r="AN222" s="14"/>
+      <c r="AN222" s="15"/>
       <c r="AZ222" s="18"/>
     </row>
     <row r="223" spans="1:70" x14ac:dyDescent="0.25">
@@ -6617,10 +6620,10 @@
       <c r="B223" t="s">
         <v>257</v>
       </c>
-      <c r="AD223" s="14" t="s">
+      <c r="AD223" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE223" s="14" t="s">
+      <c r="AE223" s="15" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6628,8 +6631,8 @@
       <c r="B224" t="s">
         <v>258</v>
       </c>
-      <c r="AD224" s="14"/>
-      <c r="AE224" s="14"/>
+      <c r="AD224" s="15"/>
+      <c r="AE224" s="15"/>
     </row>
     <row r="225" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -6638,10 +6641,10 @@
       <c r="B225" t="s">
         <v>261</v>
       </c>
-      <c r="AA225" s="14" t="s">
+      <c r="AA225" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AD225" s="14" t="s">
+      <c r="AD225" s="15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6649,8 +6652,8 @@
       <c r="B226" t="s">
         <v>262</v>
       </c>
-      <c r="AA226" s="14"/>
-      <c r="AD226" s="14"/>
+      <c r="AA226" s="15"/>
+      <c r="AD226" s="15"/>
     </row>
     <row r="227" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -6659,10 +6662,10 @@
       <c r="B227" t="s">
         <v>265</v>
       </c>
-      <c r="Z227" s="14" t="s">
+      <c r="Z227" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AD227" s="14" t="s">
+      <c r="AD227" s="15" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6670,8 +6673,8 @@
       <c r="B228" t="s">
         <v>266</v>
       </c>
-      <c r="Z228" s="14"/>
-      <c r="AD228" s="14"/>
+      <c r="Z228" s="15"/>
+      <c r="AD228" s="15"/>
     </row>
     <row r="229" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -6680,10 +6683,10 @@
       <c r="B229" t="s">
         <v>269</v>
       </c>
-      <c r="Y229" s="14" t="s">
+      <c r="Y229" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="AD229" s="14" t="s">
+      <c r="AD229" s="15" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6691,8 +6694,8 @@
       <c r="B230" t="s">
         <v>270</v>
       </c>
-      <c r="Y230" s="14"/>
-      <c r="AD230" s="14"/>
+      <c r="Y230" s="15"/>
+      <c r="AD230" s="15"/>
     </row>
     <row r="231" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -6701,10 +6704,10 @@
       <c r="B231" t="s">
         <v>273</v>
       </c>
-      <c r="X231" s="14" t="s">
+      <c r="X231" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="AD231" s="14" t="s">
+      <c r="AD231" s="15" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6712,8 +6715,8 @@
       <c r="B232" t="s">
         <v>274</v>
       </c>
-      <c r="X232" s="14"/>
-      <c r="AD232" s="14"/>
+      <c r="X232" s="15"/>
+      <c r="AD232" s="15"/>
     </row>
     <row r="233" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -6739,25 +6742,25 @@
       <c r="J234" t="s">
         <v>192</v>
       </c>
-      <c r="AB234" s="14" t="s">
+      <c r="AB234" s="15" t="s">
         <v>193</v>
       </c>
       <c r="AD234" t="s">
         <v>293</v>
       </c>
-      <c r="AI234" s="14" t="s">
+      <c r="AI234" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="AM234" s="14" t="s">
+      <c r="AM234" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="AN234" s="14" t="s">
+      <c r="AN234" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="AO234" s="14" t="s">
+      <c r="AO234" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="AP234" s="14" t="s">
+      <c r="AP234" s="15" t="s">
         <v>198</v>
       </c>
       <c r="AU234" s="4"/>
@@ -6801,12 +6804,12 @@
       <c r="B235" t="s">
         <v>169</v>
       </c>
-      <c r="AB235" s="14"/>
-      <c r="AI235" s="14"/>
-      <c r="AM235" s="14"/>
-      <c r="AN235" s="14"/>
-      <c r="AO235" s="14"/>
-      <c r="AP235" s="14"/>
+      <c r="AB235" s="15"/>
+      <c r="AI235" s="15"/>
+      <c r="AM235" s="15"/>
+      <c r="AN235" s="15"/>
+      <c r="AO235" s="15"/>
+      <c r="AP235" s="15"/>
       <c r="BM235" s="16"/>
       <c r="BN235" s="16"/>
       <c r="BO235" s="16"/>
@@ -6818,12 +6821,12 @@
       <c r="B236" t="s">
         <v>170</v>
       </c>
-      <c r="AB236" s="14"/>
-      <c r="AI236" s="14"/>
-      <c r="AM236" s="14"/>
-      <c r="AN236" s="14"/>
-      <c r="AO236" s="14"/>
-      <c r="AP236" s="14"/>
+      <c r="AB236" s="15"/>
+      <c r="AI236" s="15"/>
+      <c r="AM236" s="15"/>
+      <c r="AN236" s="15"/>
+      <c r="AO236" s="15"/>
+      <c r="AP236" s="15"/>
       <c r="BM236" s="16"/>
       <c r="BN236" s="16"/>
       <c r="BO236" s="16"/>
@@ -6835,12 +6838,12 @@
       <c r="B237" t="s">
         <v>171</v>
       </c>
-      <c r="AB237" s="14"/>
-      <c r="AI237" s="14"/>
-      <c r="AM237" s="14"/>
-      <c r="AN237" s="14"/>
-      <c r="AO237" s="14"/>
-      <c r="AP237" s="14"/>
+      <c r="AB237" s="15"/>
+      <c r="AI237" s="15"/>
+      <c r="AM237" s="15"/>
+      <c r="AN237" s="15"/>
+      <c r="AO237" s="15"/>
+      <c r="AP237" s="15"/>
       <c r="BM237" s="16"/>
       <c r="BN237" s="16"/>
       <c r="BO237" s="16"/>
@@ -6852,12 +6855,12 @@
       <c r="B238" t="s">
         <v>172</v>
       </c>
-      <c r="AB238" s="14"/>
-      <c r="AI238" s="14"/>
-      <c r="AM238" s="14"/>
-      <c r="AN238" s="14"/>
-      <c r="AO238" s="14"/>
-      <c r="AP238" s="14"/>
+      <c r="AB238" s="15"/>
+      <c r="AI238" s="15"/>
+      <c r="AM238" s="15"/>
+      <c r="AN238" s="15"/>
+      <c r="AO238" s="15"/>
+      <c r="AP238" s="15"/>
       <c r="BM238" s="16"/>
       <c r="BN238" s="16"/>
       <c r="BO238" s="16"/>
@@ -6869,12 +6872,12 @@
       <c r="B239" t="s">
         <v>173</v>
       </c>
-      <c r="AB239" s="14"/>
-      <c r="AI239" s="14"/>
-      <c r="AM239" s="14"/>
-      <c r="AN239" s="14"/>
-      <c r="AO239" s="14"/>
-      <c r="AP239" s="14"/>
+      <c r="AB239" s="15"/>
+      <c r="AI239" s="15"/>
+      <c r="AM239" s="15"/>
+      <c r="AN239" s="15"/>
+      <c r="AO239" s="15"/>
+      <c r="AP239" s="15"/>
       <c r="BM239" s="16"/>
       <c r="BN239" s="16"/>
       <c r="BO239" s="16"/>
@@ -6886,12 +6889,12 @@
       <c r="B240" t="s">
         <v>174</v>
       </c>
-      <c r="AB240" s="14"/>
-      <c r="AI240" s="14"/>
-      <c r="AM240" s="14"/>
-      <c r="AN240" s="14"/>
-      <c r="AO240" s="14"/>
-      <c r="AP240" s="14"/>
+      <c r="AB240" s="15"/>
+      <c r="AI240" s="15"/>
+      <c r="AM240" s="15"/>
+      <c r="AN240" s="15"/>
+      <c r="AO240" s="15"/>
+      <c r="AP240" s="15"/>
       <c r="BM240" s="16"/>
       <c r="BN240" s="16"/>
       <c r="BO240" s="16"/>
@@ -6903,12 +6906,12 @@
       <c r="B241" t="s">
         <v>175</v>
       </c>
-      <c r="AB241" s="14"/>
-      <c r="AI241" s="14"/>
-      <c r="AM241" s="14"/>
-      <c r="AN241" s="14"/>
-      <c r="AO241" s="14"/>
-      <c r="AP241" s="14"/>
+      <c r="AB241" s="15"/>
+      <c r="AI241" s="15"/>
+      <c r="AM241" s="15"/>
+      <c r="AN241" s="15"/>
+      <c r="AO241" s="15"/>
+      <c r="AP241" s="15"/>
       <c r="BM241" s="16"/>
       <c r="BN241" s="16"/>
       <c r="BO241" s="16"/>
@@ -6920,12 +6923,12 @@
       <c r="B242" t="s">
         <v>176</v>
       </c>
-      <c r="AB242" s="14"/>
-      <c r="AI242" s="14"/>
-      <c r="AM242" s="14"/>
-      <c r="AN242" s="14"/>
-      <c r="AO242" s="14"/>
-      <c r="AP242" s="14"/>
+      <c r="AB242" s="15"/>
+      <c r="AI242" s="15"/>
+      <c r="AM242" s="15"/>
+      <c r="AN242" s="15"/>
+      <c r="AO242" s="15"/>
+      <c r="AP242" s="15"/>
       <c r="BM242" s="16"/>
       <c r="BN242" s="16"/>
       <c r="BO242" s="16"/>
@@ -6937,12 +6940,12 @@
       <c r="B243" t="s">
         <v>177</v>
       </c>
-      <c r="AB243" s="14"/>
-      <c r="AI243" s="14"/>
-      <c r="AM243" s="14"/>
-      <c r="AN243" s="14"/>
-      <c r="AO243" s="14"/>
-      <c r="AP243" s="14"/>
+      <c r="AB243" s="15"/>
+      <c r="AI243" s="15"/>
+      <c r="AM243" s="15"/>
+      <c r="AN243" s="15"/>
+      <c r="AO243" s="15"/>
+      <c r="AP243" s="15"/>
       <c r="BM243" s="16"/>
       <c r="BN243" s="16"/>
       <c r="BO243" s="16"/>
@@ -6954,12 +6957,12 @@
       <c r="B244" t="s">
         <v>178</v>
       </c>
-      <c r="AB244" s="14"/>
-      <c r="AI244" s="14"/>
-      <c r="AM244" s="14"/>
-      <c r="AN244" s="14"/>
-      <c r="AO244" s="14"/>
-      <c r="AP244" s="14"/>
+      <c r="AB244" s="15"/>
+      <c r="AI244" s="15"/>
+      <c r="AM244" s="15"/>
+      <c r="AN244" s="15"/>
+      <c r="AO244" s="15"/>
+      <c r="AP244" s="15"/>
       <c r="BM244" s="16"/>
       <c r="BN244" s="16"/>
       <c r="BO244" s="16"/>
@@ -6971,12 +6974,12 @@
       <c r="B245" t="s">
         <v>179</v>
       </c>
-      <c r="AB245" s="14"/>
-      <c r="AI245" s="14"/>
-      <c r="AM245" s="14"/>
-      <c r="AN245" s="14"/>
-      <c r="AO245" s="14"/>
-      <c r="AP245" s="14"/>
+      <c r="AB245" s="15"/>
+      <c r="AI245" s="15"/>
+      <c r="AM245" s="15"/>
+      <c r="AN245" s="15"/>
+      <c r="AO245" s="15"/>
+      <c r="AP245" s="15"/>
       <c r="BM245" s="16"/>
       <c r="BN245" s="16"/>
       <c r="BO245" s="16"/>
@@ -6988,12 +6991,12 @@
       <c r="B246" t="s">
         <v>180</v>
       </c>
-      <c r="AB246" s="14"/>
-      <c r="AI246" s="14"/>
-      <c r="AM246" s="14"/>
-      <c r="AN246" s="14"/>
-      <c r="AO246" s="14"/>
-      <c r="AP246" s="14"/>
+      <c r="AB246" s="15"/>
+      <c r="AI246" s="15"/>
+      <c r="AM246" s="15"/>
+      <c r="AN246" s="15"/>
+      <c r="AO246" s="15"/>
+      <c r="AP246" s="15"/>
       <c r="BM246" s="16"/>
       <c r="BN246" s="16"/>
       <c r="BO246" s="16"/>
@@ -7005,12 +7008,12 @@
       <c r="B247" t="s">
         <v>181</v>
       </c>
-      <c r="AB247" s="14"/>
-      <c r="AI247" s="14"/>
-      <c r="AM247" s="14"/>
-      <c r="AN247" s="14"/>
-      <c r="AO247" s="14"/>
-      <c r="AP247" s="14"/>
+      <c r="AB247" s="15"/>
+      <c r="AI247" s="15"/>
+      <c r="AM247" s="15"/>
+      <c r="AN247" s="15"/>
+      <c r="AO247" s="15"/>
+      <c r="AP247" s="15"/>
       <c r="BM247" s="16"/>
       <c r="BN247" s="16"/>
       <c r="BO247" s="16"/>
@@ -7022,12 +7025,12 @@
       <c r="B248" t="s">
         <v>182</v>
       </c>
-      <c r="AB248" s="14"/>
-      <c r="AI248" s="14"/>
-      <c r="AM248" s="14"/>
-      <c r="AN248" s="14"/>
-      <c r="AO248" s="14"/>
-      <c r="AP248" s="14"/>
+      <c r="AB248" s="15"/>
+      <c r="AI248" s="15"/>
+      <c r="AM248" s="15"/>
+      <c r="AN248" s="15"/>
+      <c r="AO248" s="15"/>
+      <c r="AP248" s="15"/>
       <c r="BM248" s="16"/>
       <c r="BN248" s="16"/>
       <c r="BO248" s="16"/>
@@ -7039,12 +7042,12 @@
       <c r="B249" t="s">
         <v>183</v>
       </c>
-      <c r="AB249" s="14"/>
-      <c r="AI249" s="14"/>
-      <c r="AM249" s="14"/>
-      <c r="AN249" s="14"/>
-      <c r="AO249" s="14"/>
-      <c r="AP249" s="14"/>
+      <c r="AB249" s="15"/>
+      <c r="AI249" s="15"/>
+      <c r="AM249" s="15"/>
+      <c r="AN249" s="15"/>
+      <c r="AO249" s="15"/>
+      <c r="AP249" s="15"/>
       <c r="BM249" s="16"/>
       <c r="BN249" s="16"/>
       <c r="BO249" s="16"/>
@@ -7056,12 +7059,12 @@
       <c r="B250" t="s">
         <v>184</v>
       </c>
-      <c r="AB250" s="14"/>
-      <c r="AI250" s="14"/>
-      <c r="AM250" s="14"/>
-      <c r="AN250" s="14"/>
-      <c r="AO250" s="14"/>
-      <c r="AP250" s="14"/>
+      <c r="AB250" s="15"/>
+      <c r="AI250" s="15"/>
+      <c r="AM250" s="15"/>
+      <c r="AN250" s="15"/>
+      <c r="AO250" s="15"/>
+      <c r="AP250" s="15"/>
       <c r="BM250" s="16"/>
       <c r="BN250" s="16"/>
       <c r="BO250" s="16"/>
@@ -7073,12 +7076,12 @@
       <c r="B251" t="s">
         <v>185</v>
       </c>
-      <c r="AB251" s="14"/>
-      <c r="AI251" s="14"/>
-      <c r="AM251" s="14"/>
-      <c r="AN251" s="14"/>
-      <c r="AO251" s="14"/>
-      <c r="AP251" s="14"/>
+      <c r="AB251" s="15"/>
+      <c r="AI251" s="15"/>
+      <c r="AM251" s="15"/>
+      <c r="AN251" s="15"/>
+      <c r="AO251" s="15"/>
+      <c r="AP251" s="15"/>
       <c r="BM251" s="16"/>
       <c r="BN251" s="16"/>
       <c r="BO251" s="16"/>
@@ -7090,12 +7093,12 @@
       <c r="B252" t="s">
         <v>186</v>
       </c>
-      <c r="AB252" s="14"/>
-      <c r="AI252" s="14"/>
-      <c r="AM252" s="14"/>
-      <c r="AN252" s="14"/>
-      <c r="AO252" s="14"/>
-      <c r="AP252" s="14"/>
+      <c r="AB252" s="15"/>
+      <c r="AI252" s="15"/>
+      <c r="AM252" s="15"/>
+      <c r="AN252" s="15"/>
+      <c r="AO252" s="15"/>
+      <c r="AP252" s="15"/>
       <c r="BM252" s="16"/>
       <c r="BN252" s="16"/>
       <c r="BO252" s="16"/>
@@ -7107,12 +7110,12 @@
       <c r="B253" t="s">
         <v>187</v>
       </c>
-      <c r="AB253" s="14"/>
-      <c r="AI253" s="14"/>
-      <c r="AM253" s="14"/>
-      <c r="AN253" s="14"/>
-      <c r="AO253" s="14"/>
-      <c r="AP253" s="14"/>
+      <c r="AB253" s="15"/>
+      <c r="AI253" s="15"/>
+      <c r="AM253" s="15"/>
+      <c r="AN253" s="15"/>
+      <c r="AO253" s="15"/>
+      <c r="AP253" s="15"/>
       <c r="BM253" s="16"/>
       <c r="BN253" s="16"/>
       <c r="BO253" s="16"/>
@@ -7124,12 +7127,12 @@
       <c r="B254" t="s">
         <v>188</v>
       </c>
-      <c r="AB254" s="14"/>
-      <c r="AI254" s="14"/>
-      <c r="AM254" s="14"/>
-      <c r="AN254" s="14"/>
-      <c r="AO254" s="14"/>
-      <c r="AP254" s="14"/>
+      <c r="AB254" s="15"/>
+      <c r="AI254" s="15"/>
+      <c r="AM254" s="15"/>
+      <c r="AN254" s="15"/>
+      <c r="AO254" s="15"/>
+      <c r="AP254" s="15"/>
       <c r="BM254" s="16"/>
       <c r="BN254" s="16"/>
       <c r="BO254" s="16"/>
@@ -7141,12 +7144,12 @@
       <c r="B255" t="s">
         <v>189</v>
       </c>
-      <c r="AB255" s="14"/>
-      <c r="AI255" s="14"/>
-      <c r="AM255" s="14"/>
-      <c r="AN255" s="14"/>
-      <c r="AO255" s="14"/>
-      <c r="AP255" s="14"/>
+      <c r="AB255" s="15"/>
+      <c r="AI255" s="15"/>
+      <c r="AM255" s="15"/>
+      <c r="AN255" s="15"/>
+      <c r="AO255" s="15"/>
+      <c r="AP255" s="15"/>
       <c r="BM255" s="16"/>
       <c r="BN255" s="16"/>
       <c r="BO255" s="16"/>
@@ -7158,12 +7161,12 @@
       <c r="B256" t="s">
         <v>190</v>
       </c>
-      <c r="AB256" s="14"/>
-      <c r="AI256" s="14"/>
-      <c r="AM256" s="14"/>
-      <c r="AN256" s="14"/>
-      <c r="AO256" s="14"/>
-      <c r="AP256" s="14"/>
+      <c r="AB256" s="15"/>
+      <c r="AI256" s="15"/>
+      <c r="AM256" s="15"/>
+      <c r="AN256" s="15"/>
+      <c r="AO256" s="15"/>
+      <c r="AP256" s="15"/>
       <c r="BM256" s="16"/>
       <c r="BN256" s="16"/>
       <c r="BO256" s="16"/>
@@ -7178,25 +7181,25 @@
       <c r="B257" t="s">
         <v>280</v>
       </c>
-      <c r="R257" s="19" t="s">
+      <c r="R257" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="S257" s="14" t="s">
+      <c r="S257" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="T257" s="14" t="s">
+      <c r="T257" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="U257" s="14" t="s">
+      <c r="U257" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="V257" s="14" t="s">
+      <c r="V257" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="W257" s="14" t="s">
+      <c r="W257" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="AD257" s="14" t="s">
+      <c r="AD257" s="15" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7204,73 +7207,73 @@
       <c r="B258" t="s">
         <v>281</v>
       </c>
-      <c r="R258" s="19"/>
-      <c r="S258" s="14"/>
-      <c r="T258" s="14"/>
-      <c r="U258" s="14"/>
-      <c r="V258" s="14"/>
-      <c r="W258" s="14"/>
-      <c r="AD258" s="14"/>
+      <c r="R258" s="14"/>
+      <c r="S258" s="15"/>
+      <c r="T258" s="15"/>
+      <c r="U258" s="15"/>
+      <c r="V258" s="15"/>
+      <c r="W258" s="15"/>
+      <c r="AD258" s="15"/>
     </row>
     <row r="259" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>282</v>
       </c>
-      <c r="R259" s="19"/>
-      <c r="S259" s="14"/>
-      <c r="T259" s="14"/>
-      <c r="U259" s="14"/>
-      <c r="V259" s="14"/>
-      <c r="W259" s="14"/>
-      <c r="AD259" s="14"/>
+      <c r="R259" s="14"/>
+      <c r="S259" s="15"/>
+      <c r="T259" s="15"/>
+      <c r="U259" s="15"/>
+      <c r="V259" s="15"/>
+      <c r="W259" s="15"/>
+      <c r="AD259" s="15"/>
     </row>
     <row r="260" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>283</v>
       </c>
-      <c r="R260" s="19"/>
-      <c r="S260" s="14"/>
-      <c r="T260" s="14"/>
-      <c r="U260" s="14"/>
-      <c r="V260" s="14"/>
-      <c r="W260" s="14"/>
-      <c r="AD260" s="14"/>
+      <c r="R260" s="14"/>
+      <c r="S260" s="15"/>
+      <c r="T260" s="15"/>
+      <c r="U260" s="15"/>
+      <c r="V260" s="15"/>
+      <c r="W260" s="15"/>
+      <c r="AD260" s="15"/>
     </row>
     <row r="261" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>284</v>
       </c>
-      <c r="R261" s="19"/>
-      <c r="S261" s="14"/>
-      <c r="T261" s="14"/>
-      <c r="U261" s="14"/>
-      <c r="V261" s="14"/>
-      <c r="W261" s="14"/>
-      <c r="AD261" s="14"/>
+      <c r="R261" s="14"/>
+      <c r="S261" s="15"/>
+      <c r="T261" s="15"/>
+      <c r="U261" s="15"/>
+      <c r="V261" s="15"/>
+      <c r="W261" s="15"/>
+      <c r="AD261" s="15"/>
     </row>
     <row r="262" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>285</v>
       </c>
-      <c r="R262" s="19"/>
-      <c r="S262" s="14"/>
-      <c r="T262" s="14"/>
-      <c r="U262" s="14"/>
-      <c r="V262" s="14"/>
-      <c r="W262" s="14"/>
-      <c r="AD262" s="14"/>
+      <c r="R262" s="14"/>
+      <c r="S262" s="15"/>
+      <c r="T262" s="15"/>
+      <c r="U262" s="15"/>
+      <c r="V262" s="15"/>
+      <c r="W262" s="15"/>
+      <c r="AD262" s="15"/>
     </row>
     <row r="263" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>286</v>
       </c>
-      <c r="R263" s="19"/>
-      <c r="S263" s="14"/>
-      <c r="T263" s="14"/>
-      <c r="U263" s="14"/>
-      <c r="V263" s="14"/>
-      <c r="W263" s="14"/>
-      <c r="AD263" s="14"/>
+      <c r="R263" s="14"/>
+      <c r="S263" s="15"/>
+      <c r="T263" s="15"/>
+      <c r="U263" s="15"/>
+      <c r="V263" s="15"/>
+      <c r="W263" s="15"/>
+      <c r="AD263" s="15"/>
     </row>
     <row r="264" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -7637,6 +7640,15 @@
         <v>316</v>
       </c>
       <c r="AD305" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF305" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG305" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH305" s="7" t="s">
         <v>311</v>
       </c>
       <c r="AR305" s="7" t="s">
@@ -9047,6 +9059,9 @@
         <v>644</v>
       </c>
       <c r="N441" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P441" s="7" t="s">
         <v>385</v>
       </c>
       <c r="AL441" t="s">
@@ -13943,6 +13958,9 @@
       <c r="AF1048" t="s">
         <v>303</v>
       </c>
+      <c r="AH1048" s="7" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="1049" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B1049" t="s">
@@ -13978,6 +13996,15 @@
       <c r="AD1052" t="s">
         <v>601</v>
       </c>
+      <c r="AF1052" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG1052" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH1052" s="7" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="1053" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1053">
@@ -18218,31 +18245,79 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="R257:R263"/>
-    <mergeCell ref="V257:V263"/>
-    <mergeCell ref="W257:W263"/>
-    <mergeCell ref="U257:U263"/>
-    <mergeCell ref="T257:T263"/>
-    <mergeCell ref="S257:S263"/>
-    <mergeCell ref="BP234:BP256"/>
-    <mergeCell ref="BQ234:BQ256"/>
-    <mergeCell ref="BR234:BR256"/>
-    <mergeCell ref="AD257:AD263"/>
-    <mergeCell ref="AO234:AO256"/>
-    <mergeCell ref="AP234:AP256"/>
-    <mergeCell ref="BM234:BM256"/>
-    <mergeCell ref="BN234:BN256"/>
-    <mergeCell ref="BO234:BO256"/>
-    <mergeCell ref="X231:X232"/>
-    <mergeCell ref="AB234:AB256"/>
-    <mergeCell ref="AI234:AI256"/>
-    <mergeCell ref="AM234:AM256"/>
-    <mergeCell ref="AN234:AN256"/>
-    <mergeCell ref="AD227:AD228"/>
-    <mergeCell ref="AD229:AD230"/>
-    <mergeCell ref="AD231:AD232"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="Y229:Y230"/>
+    <mergeCell ref="K6:K29"/>
+    <mergeCell ref="M6:M29"/>
+    <mergeCell ref="N6:N29"/>
+    <mergeCell ref="O6:O29"/>
+    <mergeCell ref="P6:P29"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E6:E29"/>
+    <mergeCell ref="F6:F29"/>
+    <mergeCell ref="G6:G29"/>
+    <mergeCell ref="H6:H29"/>
+    <mergeCell ref="E31:E55"/>
+    <mergeCell ref="F31:F55"/>
+    <mergeCell ref="G31:G55"/>
+    <mergeCell ref="H31:H55"/>
+    <mergeCell ref="K31:K55"/>
+    <mergeCell ref="M31:M55"/>
+    <mergeCell ref="N31:N55"/>
+    <mergeCell ref="O31:O55"/>
+    <mergeCell ref="P31:P55"/>
+    <mergeCell ref="BG31:BG55"/>
+    <mergeCell ref="AW31:AW55"/>
+    <mergeCell ref="AX31:AX55"/>
+    <mergeCell ref="AY31:AY55"/>
+    <mergeCell ref="BA31:BA55"/>
+    <mergeCell ref="BB31:BB55"/>
+    <mergeCell ref="AV6:AV29"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AS6:AS29"/>
+    <mergeCell ref="AS31:AS55"/>
+    <mergeCell ref="AV31:AV55"/>
+    <mergeCell ref="BB6:BB29"/>
+    <mergeCell ref="BA6:BA29"/>
+    <mergeCell ref="AY6:AY29"/>
+    <mergeCell ref="AX6:AX29"/>
+    <mergeCell ref="AW6:AW29"/>
+    <mergeCell ref="AN57:AN59"/>
+    <mergeCell ref="AZ57:AZ59"/>
+    <mergeCell ref="AI68:AI69"/>
+    <mergeCell ref="AC82:AC83"/>
+    <mergeCell ref="AD82:AD83"/>
+    <mergeCell ref="BC31:BC55"/>
+    <mergeCell ref="BD31:BD55"/>
+    <mergeCell ref="BE31:BE55"/>
+    <mergeCell ref="BF31:BF55"/>
+    <mergeCell ref="AL31:AL55"/>
+    <mergeCell ref="AN31:AN55"/>
+    <mergeCell ref="AD57:AD59"/>
+    <mergeCell ref="AI118:AI149"/>
+    <mergeCell ref="AM118:AM149"/>
+    <mergeCell ref="AN118:AN149"/>
+    <mergeCell ref="AO118:AO149"/>
+    <mergeCell ref="AP118:AP149"/>
+    <mergeCell ref="J84:J116"/>
+    <mergeCell ref="I84:I116"/>
+    <mergeCell ref="I118:I149"/>
+    <mergeCell ref="J118:J149"/>
+    <mergeCell ref="AB118:AB149"/>
+    <mergeCell ref="I185:I217"/>
+    <mergeCell ref="J185:J217"/>
+    <mergeCell ref="AB185:AB217"/>
+    <mergeCell ref="AI185:AI217"/>
+    <mergeCell ref="AM185:AM217"/>
+    <mergeCell ref="AN150:AN152"/>
+    <mergeCell ref="AS150:AS152"/>
+    <mergeCell ref="BA150:BA152"/>
+    <mergeCell ref="I153:I183"/>
+    <mergeCell ref="J153:J183"/>
+    <mergeCell ref="AB153:AB183"/>
+    <mergeCell ref="AI153:AI183"/>
+    <mergeCell ref="AM153:AM183"/>
+    <mergeCell ref="AN153:AN183"/>
+    <mergeCell ref="AO153:AO183"/>
+    <mergeCell ref="AP153:AP183"/>
     <mergeCell ref="AN220:AN222"/>
     <mergeCell ref="AE223:AE224"/>
     <mergeCell ref="AD223:AD224"/>
@@ -18263,79 +18338,31 @@
     <mergeCell ref="AP185:AP217"/>
     <mergeCell ref="BH185:BH217"/>
     <mergeCell ref="BI185:BI217"/>
-    <mergeCell ref="I185:I217"/>
-    <mergeCell ref="J185:J217"/>
-    <mergeCell ref="AB185:AB217"/>
-    <mergeCell ref="AI185:AI217"/>
-    <mergeCell ref="AM185:AM217"/>
-    <mergeCell ref="AN150:AN152"/>
-    <mergeCell ref="AS150:AS152"/>
-    <mergeCell ref="BA150:BA152"/>
-    <mergeCell ref="I153:I183"/>
-    <mergeCell ref="J153:J183"/>
-    <mergeCell ref="AB153:AB183"/>
-    <mergeCell ref="AI153:AI183"/>
-    <mergeCell ref="AM153:AM183"/>
-    <mergeCell ref="AN153:AN183"/>
-    <mergeCell ref="AO153:AO183"/>
-    <mergeCell ref="AP153:AP183"/>
-    <mergeCell ref="AI118:AI149"/>
-    <mergeCell ref="AM118:AM149"/>
-    <mergeCell ref="AN118:AN149"/>
-    <mergeCell ref="AO118:AO149"/>
-    <mergeCell ref="AP118:AP149"/>
-    <mergeCell ref="J84:J116"/>
-    <mergeCell ref="I84:I116"/>
-    <mergeCell ref="I118:I149"/>
-    <mergeCell ref="J118:J149"/>
-    <mergeCell ref="AB118:AB149"/>
-    <mergeCell ref="AN57:AN59"/>
-    <mergeCell ref="AZ57:AZ59"/>
-    <mergeCell ref="AI68:AI69"/>
-    <mergeCell ref="AC82:AC83"/>
-    <mergeCell ref="AD82:AD83"/>
-    <mergeCell ref="BC31:BC55"/>
-    <mergeCell ref="BD31:BD55"/>
-    <mergeCell ref="BE31:BE55"/>
-    <mergeCell ref="BF31:BF55"/>
-    <mergeCell ref="AL31:AL55"/>
-    <mergeCell ref="AN31:AN55"/>
-    <mergeCell ref="AD57:AD59"/>
-    <mergeCell ref="BG31:BG55"/>
-    <mergeCell ref="AW31:AW55"/>
-    <mergeCell ref="AX31:AX55"/>
-    <mergeCell ref="AY31:AY55"/>
-    <mergeCell ref="BA31:BA55"/>
-    <mergeCell ref="BB31:BB55"/>
-    <mergeCell ref="AV6:AV29"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AS6:AS29"/>
-    <mergeCell ref="AS31:AS55"/>
-    <mergeCell ref="AV31:AV55"/>
-    <mergeCell ref="BB6:BB29"/>
-    <mergeCell ref="BA6:BA29"/>
-    <mergeCell ref="AY6:AY29"/>
-    <mergeCell ref="AX6:AX29"/>
-    <mergeCell ref="AW6:AW29"/>
-    <mergeCell ref="E31:E55"/>
-    <mergeCell ref="F31:F55"/>
-    <mergeCell ref="G31:G55"/>
-    <mergeCell ref="H31:H55"/>
-    <mergeCell ref="K31:K55"/>
-    <mergeCell ref="M31:M55"/>
-    <mergeCell ref="N31:N55"/>
-    <mergeCell ref="O31:O55"/>
-    <mergeCell ref="P31:P55"/>
-    <mergeCell ref="K6:K29"/>
-    <mergeCell ref="M6:M29"/>
-    <mergeCell ref="N6:N29"/>
-    <mergeCell ref="O6:O29"/>
-    <mergeCell ref="P6:P29"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E6:E29"/>
-    <mergeCell ref="F6:F29"/>
-    <mergeCell ref="G6:G29"/>
-    <mergeCell ref="H6:H29"/>
+    <mergeCell ref="X231:X232"/>
+    <mergeCell ref="AB234:AB256"/>
+    <mergeCell ref="AI234:AI256"/>
+    <mergeCell ref="AM234:AM256"/>
+    <mergeCell ref="AN234:AN256"/>
+    <mergeCell ref="AD227:AD228"/>
+    <mergeCell ref="AD229:AD230"/>
+    <mergeCell ref="AD231:AD232"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="Y229:Y230"/>
+    <mergeCell ref="R257:R263"/>
+    <mergeCell ref="V257:V263"/>
+    <mergeCell ref="W257:W263"/>
+    <mergeCell ref="U257:U263"/>
+    <mergeCell ref="T257:T263"/>
+    <mergeCell ref="S257:S263"/>
+    <mergeCell ref="BP234:BP256"/>
+    <mergeCell ref="BQ234:BQ256"/>
+    <mergeCell ref="BR234:BR256"/>
+    <mergeCell ref="AD257:AD263"/>
+    <mergeCell ref="AO234:AO256"/>
+    <mergeCell ref="AP234:AP256"/>
+    <mergeCell ref="BM234:BM256"/>
+    <mergeCell ref="BN234:BN256"/>
+    <mergeCell ref="BO234:BO256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LR1-Table.xlsx
+++ b/LR1-Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="657">
   <si>
     <t>State</t>
   </si>
@@ -2452,10 +2452,10 @@
   <dimension ref="A1:BR1577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BI692" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="BM699" sqref="BM699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8861,6 +8861,18 @@
       </c>
       <c r="B424" t="s">
         <v>363</v>
+      </c>
+      <c r="X424" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y424" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z424" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA424" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="AF424" s="7" t="s">
         <v>311</v>
@@ -11266,26 +11278,26 @@
       <c r="BK699" s="4">
         <v>62</v>
       </c>
-      <c r="BL699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BM699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BN699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BO699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BP699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BQ699" s="4">
-        <v>145</v>
-      </c>
-      <c r="BR699" s="4">
-        <v>145</v>
+      <c r="BL699" s="11">
+        <v>63</v>
+      </c>
+      <c r="BM699" s="11">
+        <v>64</v>
+      </c>
+      <c r="BN699" s="11">
+        <v>66</v>
+      </c>
+      <c r="BO699" s="11">
+        <v>67</v>
+      </c>
+      <c r="BP699" s="11">
+        <v>68</v>
+      </c>
+      <c r="BQ699" s="11">
+        <v>69</v>
+      </c>
+      <c r="BR699" s="11">
+        <v>71</v>
       </c>
     </row>
     <row r="700" spans="1:70" x14ac:dyDescent="0.25">
@@ -11685,19 +11697,19 @@
         <v>64</v>
       </c>
       <c r="BN755" s="4">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="BO755" s="4">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="BP755" s="4">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="BQ755" s="4">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="BR755" s="4">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="756" spans="1:70" x14ac:dyDescent="0.25">
@@ -12855,8 +12867,8 @@
       <c r="BQ900">
         <v>69</v>
       </c>
-      <c r="BR900">
-        <v>156</v>
+      <c r="BR900" s="7">
+        <v>71</v>
       </c>
     </row>
     <row r="901" spans="1:70" x14ac:dyDescent="0.25">
@@ -14362,6 +14374,18 @@
       </c>
       <c r="B1093" t="s">
         <v>481</v>
+      </c>
+      <c r="X1093" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y1093" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z1093" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA1093" s="7" t="s">
+        <v>595</v>
       </c>
       <c r="AG1093" t="s">
         <v>354</v>
